--- a/code/PhaseI/data/iccps/TotalProductionConsumption.xlsx
+++ b/code/PhaseI/data/iccps/TotalProductionConsumption.xlsx
@@ -8,6 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
   <si>
     <t>Time</t>
   </si>
@@ -67,6 +68,12 @@
   </si>
   <si>
     <t>Net_Consumption_11</t>
+  </si>
+  <si>
+    <t>Max</t>
+  </si>
+  <si>
+    <t>RatedCapacity</t>
   </si>
 </sst>
 </file>
@@ -385,21 +392,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P97"/>
+  <dimension ref="A1:P99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="P1" sqref="P1:P1048576"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="P3" sqref="P3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="8" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="11" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="14" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="20.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
@@ -410,40 +417,40 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="G1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="H1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="I1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="J1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="K1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>12</v>
-      </c>
-      <c r="N1" t="s">
-        <v>13</v>
       </c>
       <c r="O1" t="s">
         <v>14</v>
@@ -453,447 +460,420 @@
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>0</v>
+      <c r="A2" t="s">
+        <v>17</v>
       </c>
       <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>6.3</v>
-      </c>
-      <c r="D2">
-        <v>8.9</v>
-      </c>
-      <c r="E2">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="F2">
-        <v>8.5</v>
-      </c>
-      <c r="G2">
-        <v>3.3</v>
-      </c>
-      <c r="H2">
-        <v>2.6</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2">
-        <v>6.4999999999999991</v>
-      </c>
-      <c r="K2">
-        <v>0</v>
-      </c>
-      <c r="L2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3">
+        <f>MAX(B4:B99)</f>
+        <v>89.100000000000009</v>
+      </c>
+      <c r="C3">
+        <f>MAX(C4:C99)</f>
+        <v>30.2</v>
+      </c>
+      <c r="D3">
+        <f>MAX(D4:D99)</f>
+        <v>9.6</v>
+      </c>
+      <c r="E3">
+        <f>MAX(E4:E99)</f>
+        <v>14.5</v>
+      </c>
+      <c r="F3">
+        <f>MAX(F4:F99)</f>
+        <v>15.3</v>
+      </c>
+      <c r="G3">
+        <f>MAX(G4:G99)</f>
+        <v>19.199999999999996</v>
+      </c>
+      <c r="H3">
+        <f>MAX(H4:H99)</f>
+        <v>11.100000000000001</v>
+      </c>
+      <c r="I3">
+        <f>MAX(I4:I99)</f>
+        <v>19.3</v>
+      </c>
+      <c r="J3">
+        <f>MAX(J4:J99)</f>
+        <v>6.6</v>
+      </c>
+      <c r="K3">
+        <f>MAX(K4:K99)</f>
+        <v>7.7</v>
+      </c>
+      <c r="L3">
+        <f>MAX(L4:L99)</f>
+        <v>14.6</v>
+      </c>
+      <c r="M3">
+        <f>MAX(M4:M99)</f>
+        <v>20.399999999999999</v>
+      </c>
+      <c r="N3">
+        <f>MAX(N4:N99)</f>
+        <v>3.9</v>
+      </c>
+      <c r="O3">
+        <f>MAX(O4:O99)</f>
         <v>9.3000000000000007</v>
       </c>
-      <c r="M2">
-        <v>2</v>
-      </c>
-      <c r="N2">
-        <v>0</v>
-      </c>
-      <c r="O2">
-        <v>4.7</v>
-      </c>
-      <c r="P2">
-        <v>1.4000000000000001</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>1.0416666666666666E-2</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <v>5.8000000000000007</v>
-      </c>
-      <c r="D3">
-        <v>8.1</v>
-      </c>
-      <c r="E3">
-        <v>4.2</v>
-      </c>
-      <c r="F3">
-        <v>7.7000000000000011</v>
-      </c>
-      <c r="G3">
-        <v>3</v>
-      </c>
-      <c r="H3">
-        <v>2.5</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3">
-        <v>6</v>
-      </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
-      <c r="L3">
-        <v>8.1</v>
-      </c>
-      <c r="M3">
-        <v>1.8</v>
-      </c>
-      <c r="N3">
-        <v>0</v>
-      </c>
-      <c r="O3">
-        <v>4.3</v>
-      </c>
       <c r="P3">
-        <v>1.3</v>
+        <f>MAX(P4:P99)</f>
+        <v>2.8000000000000003</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>2.0833333333333332E-2</v>
+        <v>0</v>
       </c>
       <c r="B4">
         <v>0</v>
       </c>
       <c r="C4">
-        <v>5.5000000000000009</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>7.4999999999999991</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>3.9000000000000004</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>7.2000000000000011</v>
+        <v>6.3</v>
       </c>
       <c r="G4">
-        <v>2.6999999999999997</v>
+        <v>8.9</v>
       </c>
       <c r="H4">
-        <v>2.4</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="J4">
-        <v>5.5000000000000009</v>
+        <v>3.3</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="L4">
-        <v>7.7</v>
+        <v>6.4999999999999991</v>
       </c>
       <c r="M4">
-        <v>1.5</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O4">
-        <v>3.5999999999999996</v>
+        <v>4.7</v>
       </c>
       <c r="P4">
-        <v>1.2</v>
+        <v>1.4000000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>3.125E-2</v>
+        <v>1.0416666666666666E-2</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
       <c r="C5">
-        <v>5.2</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>6.8000000000000007</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>3.7</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>6.7000000000000011</v>
+        <v>5.8000000000000007</v>
       </c>
       <c r="G5">
+        <v>8.1</v>
+      </c>
+      <c r="H5">
+        <v>4.2</v>
+      </c>
+      <c r="I5">
+        <v>7.7000000000000011</v>
+      </c>
+      <c r="J5">
+        <v>3</v>
+      </c>
+      <c r="K5">
         <v>2.5</v>
       </c>
-      <c r="H5">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <v>5</v>
-      </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
       <c r="L5">
-        <v>7.4</v>
+        <v>6</v>
       </c>
       <c r="M5">
-        <v>1.4</v>
+        <v>8.1</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="O5">
-        <v>3.4</v>
+        <v>4.3</v>
       </c>
       <c r="P5">
-        <v>1</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>4.1666666666666664E-2</v>
+        <v>2.0833333333333332E-2</v>
       </c>
       <c r="B6">
         <v>0</v>
       </c>
       <c r="C6">
-        <v>4.8</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>6.3000000000000007</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>6.3000000000000007</v>
+        <v>5.5000000000000009</v>
       </c>
       <c r="G6">
-        <v>2.2000000000000002</v>
+        <v>7.4999999999999991</v>
       </c>
       <c r="H6">
-        <v>2.2000000000000002</v>
+        <v>3.9000000000000004</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>7.2000000000000011</v>
       </c>
       <c r="J6">
-        <v>4.7</v>
+        <v>2.6999999999999997</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="L6">
-        <v>6.9</v>
+        <v>5.5000000000000009</v>
       </c>
       <c r="M6">
-        <v>1.3</v>
+        <v>7.7</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="O6">
-        <v>3.2</v>
+        <v>3.5999999999999996</v>
       </c>
       <c r="P6">
-        <v>0.89999999999999991</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>5.2083333333333336E-2</v>
+        <v>3.125E-2</v>
       </c>
       <c r="B7">
         <v>0</v>
       </c>
       <c r="C7">
-        <v>4.7</v>
+        <v>0</v>
       </c>
       <c r="D7">
-        <v>6.1000000000000014</v>
+        <v>0</v>
       </c>
       <c r="E7">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>6.1000000000000005</v>
+        <v>5.2</v>
       </c>
       <c r="G7">
-        <v>2.1</v>
+        <v>6.8000000000000007</v>
       </c>
       <c r="H7">
-        <v>2.2000000000000002</v>
+        <v>3.7</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>6.7000000000000011</v>
       </c>
       <c r="J7">
-        <v>4.5999999999999996</v>
+        <v>2.5</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="L7">
-        <v>6.5000000000000018</v>
+        <v>5</v>
       </c>
       <c r="M7">
-        <v>1.2</v>
+        <v>7.4</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="O7">
-        <v>3.1000000000000005</v>
+        <v>3.4</v>
       </c>
       <c r="P7">
-        <v>0.89999999999999991</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>6.25E-2</v>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="B8">
         <v>0</v>
       </c>
       <c r="C8">
-        <v>4.5999999999999996</v>
+        <v>0</v>
       </c>
       <c r="D8">
-        <v>6.0000000000000009</v>
+        <v>0</v>
       </c>
       <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>4.8</v>
+      </c>
+      <c r="G8">
+        <v>6.3000000000000007</v>
+      </c>
+      <c r="H8">
+        <v>3.5</v>
+      </c>
+      <c r="I8">
+        <v>6.3000000000000007</v>
+      </c>
+      <c r="J8">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="K8">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="L8">
+        <v>4.7</v>
+      </c>
+      <c r="M8">
+        <v>6.9</v>
+      </c>
+      <c r="N8">
+        <v>1.3</v>
+      </c>
+      <c r="O8">
         <v>3.2</v>
       </c>
-      <c r="F8">
-        <v>5.9</v>
-      </c>
-      <c r="G8">
-        <v>2</v>
-      </c>
-      <c r="H8">
-        <v>2.1</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-      <c r="J8">
-        <v>4.5</v>
-      </c>
-      <c r="K8">
-        <v>0</v>
-      </c>
-      <c r="L8">
-        <v>6.4000000000000012</v>
-      </c>
-      <c r="M8">
-        <v>1.2</v>
-      </c>
-      <c r="N8">
-        <v>0</v>
-      </c>
-      <c r="O8">
-        <v>3.1000000000000005</v>
-      </c>
       <c r="P8">
-        <v>0.8</v>
+        <v>0.89999999999999991</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>7.2916666666666671E-2</v>
+        <v>5.2083333333333336E-2</v>
       </c>
       <c r="B9">
         <v>0</v>
       </c>
       <c r="C9">
-        <v>4.4000000000000004</v>
+        <v>0</v>
       </c>
       <c r="D9">
-        <v>6.0000000000000009</v>
+        <v>0</v>
       </c>
       <c r="E9">
-        <v>3.1</v>
+        <v>0</v>
       </c>
       <c r="F9">
-        <v>5.8</v>
+        <v>4.7</v>
       </c>
       <c r="G9">
-        <v>2</v>
+        <v>6.1000000000000014</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>3.3</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>6.1000000000000005</v>
       </c>
       <c r="J9">
-        <v>4.5</v>
+        <v>2.1</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="L9">
-        <v>6.3000000000000007</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="M9">
+        <v>6.5000000000000018</v>
+      </c>
+      <c r="N9">
         <v>1.2</v>
-      </c>
-      <c r="N9">
-        <v>0</v>
       </c>
       <c r="O9">
         <v>3.1000000000000005</v>
       </c>
       <c r="P9">
-        <v>0.8</v>
+        <v>0.89999999999999991</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>8.3333333333333329E-2</v>
+        <v>6.25E-2</v>
       </c>
       <c r="B10">
         <v>0</v>
       </c>
       <c r="C10">
-        <v>4.4000000000000004</v>
+        <v>0</v>
       </c>
       <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="G10">
+        <v>6.0000000000000009</v>
+      </c>
+      <c r="H10">
+        <v>3.2</v>
+      </c>
+      <c r="I10">
         <v>5.9</v>
       </c>
-      <c r="E10">
-        <v>3</v>
-      </c>
-      <c r="F10">
-        <v>5.7</v>
-      </c>
-      <c r="G10">
+      <c r="J10">
         <v>2</v>
       </c>
-      <c r="H10">
-        <v>2</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
-      <c r="J10">
-        <v>4.4000000000000004</v>
-      </c>
       <c r="K10">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="L10">
-        <v>6.1000000000000014</v>
+        <v>4.5</v>
       </c>
       <c r="M10">
+        <v>6.4000000000000012</v>
+      </c>
+      <c r="N10">
         <v>1.2</v>
-      </c>
-      <c r="N10">
-        <v>0</v>
       </c>
       <c r="O10">
         <v>3.1000000000000005</v>
@@ -904,49 +884,49 @@
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>9.375E-2</v>
+        <v>7.2916666666666671E-2</v>
       </c>
       <c r="B11">
         <v>0</v>
       </c>
       <c r="C11">
-        <v>4.3</v>
+        <v>0</v>
       </c>
       <c r="D11">
-        <v>5.8000000000000007</v>
+        <v>0</v>
       </c>
       <c r="E11">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F11">
-        <v>5.7</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="G11">
+        <v>6.0000000000000009</v>
+      </c>
+      <c r="H11">
+        <v>3.1</v>
+      </c>
+      <c r="I11">
+        <v>5.8</v>
+      </c>
+      <c r="J11">
         <v>2</v>
       </c>
-      <c r="H11">
+      <c r="K11">
         <v>2</v>
       </c>
-      <c r="I11">
-        <v>0</v>
-      </c>
-      <c r="J11">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="K11">
-        <v>0</v>
-      </c>
       <c r="L11">
-        <v>6.1000000000000014</v>
+        <v>4.5</v>
       </c>
       <c r="M11">
+        <v>6.3000000000000007</v>
+      </c>
+      <c r="N11">
         <v>1.2</v>
       </c>
-      <c r="N11">
-        <v>0</v>
-      </c>
       <c r="O11">
-        <v>2.8000000000000007</v>
+        <v>3.1000000000000005</v>
       </c>
       <c r="P11">
         <v>0.8</v>
@@ -954,49 +934,49 @@
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>0.10416666666666667</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="B12">
         <v>0</v>
       </c>
       <c r="C12">
-        <v>4.3</v>
+        <v>0</v>
       </c>
       <c r="D12">
-        <v>5.8000000000000007</v>
+        <v>0</v>
       </c>
       <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="G12">
+        <v>5.9</v>
+      </c>
+      <c r="H12">
         <v>3</v>
       </c>
-      <c r="F12">
+      <c r="I12">
         <v>5.7</v>
       </c>
-      <c r="G12">
+      <c r="J12">
         <v>2</v>
       </c>
-      <c r="H12">
+      <c r="K12">
         <v>2</v>
       </c>
-      <c r="I12">
-        <v>0</v>
-      </c>
-      <c r="J12">
-        <v>4.2</v>
-      </c>
-      <c r="K12">
-        <v>0</v>
-      </c>
       <c r="L12">
-        <v>6.0000000000000009</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="M12">
+        <v>6.1000000000000014</v>
+      </c>
+      <c r="N12">
         <v>1.2</v>
       </c>
-      <c r="N12">
-        <v>0</v>
-      </c>
       <c r="O12">
-        <v>2.8000000000000007</v>
+        <v>3.1000000000000005</v>
       </c>
       <c r="P12">
         <v>0.8</v>
@@ -1004,49 +984,49 @@
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>0.11458333333333333</v>
+        <v>9.375E-2</v>
       </c>
       <c r="B13">
         <v>0</v>
       </c>
       <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
         <v>4.3</v>
       </c>
-      <c r="D13">
+      <c r="G13">
         <v>5.8000000000000007</v>
       </c>
-      <c r="E13">
+      <c r="H13">
         <v>3</v>
       </c>
-      <c r="F13">
+      <c r="I13">
         <v>5.7</v>
       </c>
-      <c r="G13">
+      <c r="J13">
         <v>2</v>
       </c>
-      <c r="H13">
+      <c r="K13">
         <v>2</v>
       </c>
-      <c r="I13">
-        <v>0</v>
-      </c>
-      <c r="J13">
-        <v>4.2</v>
-      </c>
-      <c r="K13">
-        <v>0</v>
-      </c>
       <c r="L13">
-        <v>6.0000000000000009</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="M13">
+        <v>6.1000000000000014</v>
+      </c>
+      <c r="N13">
         <v>1.2</v>
       </c>
-      <c r="N13">
-        <v>0</v>
-      </c>
       <c r="O13">
-        <v>2.5000000000000004</v>
+        <v>2.8000000000000007</v>
       </c>
       <c r="P13">
         <v>0.8</v>
@@ -1054,49 +1034,49 @@
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>0.125</v>
+        <v>0.10416666666666667</v>
       </c>
       <c r="B14">
         <v>0</v>
       </c>
       <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>4.3</v>
+      </c>
+      <c r="G14">
+        <v>5.8000000000000007</v>
+      </c>
+      <c r="H14">
+        <v>3</v>
+      </c>
+      <c r="I14">
+        <v>5.7</v>
+      </c>
+      <c r="J14">
+        <v>2</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
         <v>4.2</v>
       </c>
-      <c r="D14">
-        <v>5.8000000000000007</v>
-      </c>
-      <c r="E14">
-        <v>3</v>
-      </c>
-      <c r="F14">
-        <v>5.7</v>
-      </c>
-      <c r="G14">
-        <v>1.8</v>
-      </c>
-      <c r="H14">
-        <v>2</v>
-      </c>
-      <c r="I14">
-        <v>0</v>
-      </c>
-      <c r="J14">
-        <v>4.2</v>
-      </c>
-      <c r="K14">
-        <v>0</v>
-      </c>
-      <c r="L14">
-        <v>5.9</v>
-      </c>
       <c r="M14">
+        <v>6.0000000000000009</v>
+      </c>
+      <c r="N14">
         <v>1.2</v>
       </c>
-      <c r="N14">
-        <v>0</v>
-      </c>
       <c r="O14">
-        <v>2.5000000000000004</v>
+        <v>2.8000000000000007</v>
       </c>
       <c r="P14">
         <v>0.8</v>
@@ -1104,46 +1084,46 @@
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>0.13541666666666666</v>
+        <v>0.11458333333333333</v>
       </c>
       <c r="B15">
         <v>0</v>
       </c>
       <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>4.3</v>
+      </c>
+      <c r="G15">
+        <v>5.8000000000000007</v>
+      </c>
+      <c r="H15">
+        <v>3</v>
+      </c>
+      <c r="I15">
+        <v>5.7</v>
+      </c>
+      <c r="J15">
+        <v>2</v>
+      </c>
+      <c r="K15">
+        <v>2</v>
+      </c>
+      <c r="L15">
         <v>4.2</v>
       </c>
-      <c r="D15">
-        <v>5.7</v>
-      </c>
-      <c r="E15">
-        <v>3</v>
-      </c>
-      <c r="F15">
-        <v>5.7</v>
-      </c>
-      <c r="G15">
-        <v>1.8</v>
-      </c>
-      <c r="H15">
-        <v>2</v>
-      </c>
-      <c r="I15">
-        <v>0</v>
-      </c>
-      <c r="J15">
-        <v>3.9000000000000004</v>
-      </c>
-      <c r="K15">
-        <v>0</v>
-      </c>
-      <c r="L15">
-        <v>5.7000000000000011</v>
-      </c>
       <c r="M15">
+        <v>6.0000000000000009</v>
+      </c>
+      <c r="N15">
         <v>1.2</v>
-      </c>
-      <c r="N15">
-        <v>0</v>
       </c>
       <c r="O15">
         <v>2.5000000000000004</v>
@@ -1154,46 +1134,46 @@
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>0.14583333333333334</v>
+        <v>0.125</v>
       </c>
       <c r="B16">
         <v>0</v>
       </c>
       <c r="C16">
-        <v>4.3</v>
+        <v>0</v>
       </c>
       <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>4.2</v>
+      </c>
+      <c r="G16">
+        <v>5.8000000000000007</v>
+      </c>
+      <c r="H16">
+        <v>3</v>
+      </c>
+      <c r="I16">
         <v>5.7</v>
       </c>
-      <c r="E16">
-        <v>3</v>
-      </c>
-      <c r="F16">
-        <v>5.7</v>
-      </c>
-      <c r="G16">
+      <c r="J16">
         <v>1.8</v>
       </c>
-      <c r="H16">
+      <c r="K16">
         <v>2</v>
       </c>
-      <c r="I16">
-        <v>0</v>
-      </c>
-      <c r="J16">
-        <v>3.9000000000000004</v>
-      </c>
-      <c r="K16">
-        <v>0</v>
-      </c>
       <c r="L16">
-        <v>5.7000000000000011</v>
+        <v>4.2</v>
       </c>
       <c r="M16">
+        <v>5.9</v>
+      </c>
+      <c r="N16">
         <v>1.2</v>
-      </c>
-      <c r="N16">
-        <v>0</v>
       </c>
       <c r="O16">
         <v>2.5000000000000004</v>
@@ -1204,46 +1184,46 @@
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>0.15625</v>
+        <v>0.13541666666666666</v>
       </c>
       <c r="B17">
         <v>0</v>
       </c>
       <c r="C17">
-        <v>4.4000000000000004</v>
+        <v>0</v>
       </c>
       <c r="D17">
-        <v>5.8000000000000007</v>
+        <v>0</v>
       </c>
       <c r="E17">
-        <v>3.1</v>
+        <v>0</v>
       </c>
       <c r="F17">
-        <v>5.8</v>
+        <v>4.2</v>
       </c>
       <c r="G17">
+        <v>5.7</v>
+      </c>
+      <c r="H17">
+        <v>3</v>
+      </c>
+      <c r="I17">
+        <v>5.7</v>
+      </c>
+      <c r="J17">
         <v>1.8</v>
       </c>
-      <c r="H17">
-        <v>2.1</v>
-      </c>
-      <c r="I17">
-        <v>0</v>
-      </c>
-      <c r="J17">
-        <v>4</v>
-      </c>
       <c r="K17">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L17">
-        <v>5.8000000000000007</v>
+        <v>3.9000000000000004</v>
       </c>
       <c r="M17">
+        <v>5.7000000000000011</v>
+      </c>
+      <c r="N17">
         <v>1.2</v>
-      </c>
-      <c r="N17">
-        <v>0</v>
       </c>
       <c r="O17">
         <v>2.5000000000000004</v>
@@ -1254,46 +1234,46 @@
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>0.16666666666666666</v>
+        <v>0.14583333333333334</v>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
       <c r="C18">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="D18">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E18">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="F18">
-        <v>6</v>
+        <v>4.3</v>
       </c>
       <c r="G18">
+        <v>5.7</v>
+      </c>
+      <c r="H18">
+        <v>3</v>
+      </c>
+      <c r="I18">
+        <v>5.7</v>
+      </c>
+      <c r="J18">
         <v>1.8</v>
       </c>
-      <c r="H18">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="I18">
-        <v>0</v>
-      </c>
-      <c r="J18">
-        <v>4.3</v>
-      </c>
       <c r="K18">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L18">
-        <v>6.1000000000000014</v>
+        <v>3.9000000000000004</v>
       </c>
       <c r="M18">
+        <v>5.7000000000000011</v>
+      </c>
+      <c r="N18">
         <v>1.2</v>
-      </c>
-      <c r="N18">
-        <v>0</v>
       </c>
       <c r="O18">
         <v>2.5000000000000004</v>
@@ -1304,46 +1284,46 @@
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>0.17708333333333334</v>
+        <v>0.15625</v>
       </c>
       <c r="B19">
         <v>0</v>
       </c>
       <c r="C19">
-        <v>4.7</v>
+        <v>0</v>
       </c>
       <c r="D19">
-        <v>6.2000000000000011</v>
+        <v>0</v>
       </c>
       <c r="E19">
-        <v>3.4</v>
+        <v>0</v>
       </c>
       <c r="F19">
-        <v>6.2</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="G19">
-        <v>2</v>
+        <v>5.8000000000000007</v>
       </c>
       <c r="H19">
-        <v>2.2999999999999998</v>
+        <v>3.1</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>5.8</v>
       </c>
       <c r="J19">
-        <v>4.5999999999999996</v>
+        <v>1.8</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="L19">
-        <v>6.4</v>
+        <v>4</v>
       </c>
       <c r="M19">
+        <v>5.8000000000000007</v>
+      </c>
+      <c r="N19">
         <v>1.2</v>
-      </c>
-      <c r="N19">
-        <v>0</v>
       </c>
       <c r="O19">
         <v>2.5000000000000004</v>
@@ -1354,49 +1334,49 @@
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>0.1875</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="B20">
         <v>0</v>
       </c>
       <c r="C20">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D20">
-        <v>6.4</v>
+        <v>0</v>
       </c>
       <c r="E20">
-        <v>3.6</v>
+        <v>0</v>
       </c>
       <c r="F20">
-        <v>6.4</v>
+        <v>4.5</v>
       </c>
       <c r="G20">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H20">
-        <v>2.5</v>
+        <v>3.3</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J20">
-        <v>4.8</v>
+        <v>1.8</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="L20">
-        <v>6.8000000000000007</v>
+        <v>4.3</v>
       </c>
       <c r="M20">
+        <v>6.1000000000000014</v>
+      </c>
+      <c r="N20">
         <v>1.2</v>
       </c>
-      <c r="N20">
-        <v>0</v>
-      </c>
       <c r="O20">
-        <v>2.8000000000000007</v>
+        <v>2.5000000000000004</v>
       </c>
       <c r="P20">
         <v>0.8</v>
@@ -1404,49 +1384,49 @@
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>0.19791666666666666</v>
+        <v>0.17708333333333334</v>
       </c>
       <c r="B21">
         <v>0</v>
       </c>
       <c r="C21">
-        <v>5.2</v>
+        <v>0</v>
       </c>
       <c r="D21">
-        <v>6.7000000000000011</v>
+        <v>0</v>
       </c>
       <c r="E21">
-        <v>3.6999999999999997</v>
+        <v>0</v>
       </c>
       <c r="F21">
-        <v>6.6</v>
+        <v>4.7</v>
       </c>
       <c r="G21">
+        <v>6.2000000000000011</v>
+      </c>
+      <c r="H21">
+        <v>3.4</v>
+      </c>
+      <c r="I21">
+        <v>6.2</v>
+      </c>
+      <c r="J21">
         <v>2</v>
       </c>
-      <c r="H21">
-        <v>2.6</v>
-      </c>
-      <c r="I21">
-        <v>0</v>
-      </c>
-      <c r="J21">
-        <v>5.0999999999999996</v>
-      </c>
       <c r="K21">
-        <v>0</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="L21">
-        <v>7.0000000000000018</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="M21">
+        <v>6.4</v>
+      </c>
+      <c r="N21">
         <v>1.2</v>
       </c>
-      <c r="N21">
-        <v>0</v>
-      </c>
       <c r="O21">
-        <v>3.0000000000000004</v>
+        <v>2.5000000000000004</v>
       </c>
       <c r="P21">
         <v>0.8</v>
@@ -1454,49 +1434,49 @@
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>0.20833333333333334</v>
+        <v>0.1875</v>
       </c>
       <c r="B22">
         <v>0</v>
       </c>
       <c r="C22">
-        <v>5.3999999999999995</v>
+        <v>0</v>
       </c>
       <c r="D22">
-        <v>6.7000000000000011</v>
+        <v>0</v>
       </c>
       <c r="E22">
-        <v>3.6999999999999997</v>
+        <v>0</v>
       </c>
       <c r="F22">
-        <v>6.7</v>
+        <v>5</v>
       </c>
       <c r="G22">
+        <v>6.4</v>
+      </c>
+      <c r="H22">
+        <v>3.6</v>
+      </c>
+      <c r="I22">
+        <v>6.4</v>
+      </c>
+      <c r="J22">
         <v>2</v>
       </c>
-      <c r="H22">
-        <v>2.6</v>
-      </c>
-      <c r="I22">
-        <v>0</v>
-      </c>
-      <c r="J22">
-        <v>5.2</v>
-      </c>
       <c r="K22">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="L22">
-        <v>7.1000000000000014</v>
+        <v>4.8</v>
       </c>
       <c r="M22">
+        <v>6.8000000000000007</v>
+      </c>
+      <c r="N22">
         <v>1.2</v>
       </c>
-      <c r="N22">
-        <v>0</v>
-      </c>
       <c r="O22">
-        <v>3.1000000000000005</v>
+        <v>2.8000000000000007</v>
       </c>
       <c r="P22">
         <v>0.8</v>
@@ -1504,499 +1484,499 @@
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>0.21875</v>
+        <v>0.19791666666666666</v>
       </c>
       <c r="B23">
         <v>0</v>
       </c>
       <c r="C23">
-        <v>5.3999999999999995</v>
+        <v>0</v>
       </c>
       <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>5.2</v>
+      </c>
+      <c r="G23">
         <v>6.7000000000000011</v>
       </c>
-      <c r="E23">
-        <v>3.8</v>
-      </c>
-      <c r="F23">
-        <v>6.8000000000000007</v>
-      </c>
-      <c r="G23">
-        <v>2.1</v>
-      </c>
       <c r="H23">
+        <v>3.6999999999999997</v>
+      </c>
+      <c r="I23">
+        <v>6.6</v>
+      </c>
+      <c r="J23">
+        <v>2</v>
+      </c>
+      <c r="K23">
         <v>2.6</v>
       </c>
-      <c r="I23">
-        <v>0</v>
-      </c>
-      <c r="J23">
-        <v>5.2</v>
-      </c>
-      <c r="K23">
-        <v>0</v>
-      </c>
       <c r="L23">
-        <v>7.1000000000000014</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="M23">
+        <v>7.0000000000000018</v>
+      </c>
+      <c r="N23">
         <v>1.2</v>
       </c>
-      <c r="N23">
-        <v>0</v>
-      </c>
       <c r="O23">
-        <v>3.1000000000000005</v>
+        <v>3.0000000000000004</v>
       </c>
       <c r="P23">
-        <v>0.89999999999999991</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <v>0.22916666666666666</v>
+        <v>0.20833333333333334</v>
       </c>
       <c r="B24">
         <v>0</v>
       </c>
       <c r="C24">
-        <v>5.5</v>
+        <v>0</v>
       </c>
       <c r="D24">
-        <v>6.9</v>
+        <v>0</v>
       </c>
       <c r="E24">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F24">
-        <v>6.9000000000000012</v>
+        <v>5.3999999999999995</v>
       </c>
       <c r="G24">
-        <v>2.4</v>
+        <v>6.7000000000000011</v>
       </c>
       <c r="H24">
+        <v>3.6999999999999997</v>
+      </c>
+      <c r="I24">
+        <v>6.7</v>
+      </c>
+      <c r="J24">
+        <v>2</v>
+      </c>
+      <c r="K24">
         <v>2.6</v>
       </c>
-      <c r="I24">
-        <v>0</v>
-      </c>
-      <c r="J24">
-        <v>5.3</v>
-      </c>
-      <c r="K24">
-        <v>0</v>
-      </c>
       <c r="L24">
-        <v>7.7</v>
+        <v>5.2</v>
       </c>
       <c r="M24">
-        <v>1.4</v>
+        <v>7.1000000000000014</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="O24">
-        <v>3.4</v>
+        <v>3.1000000000000005</v>
       </c>
       <c r="P24">
-        <v>0.89999999999999991</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <v>0.23958333333333334</v>
+        <v>0.21875</v>
       </c>
       <c r="B25">
         <v>0</v>
       </c>
       <c r="C25">
-        <v>5.7000000000000011</v>
+        <v>0</v>
       </c>
       <c r="D25">
-        <v>7.6999999999999993</v>
+        <v>0</v>
       </c>
       <c r="E25">
-        <v>4.0999999999999996</v>
+        <v>0</v>
       </c>
       <c r="F25">
-        <v>7.3000000000000016</v>
+        <v>5.3999999999999995</v>
       </c>
       <c r="G25">
-        <v>2.6999999999999997</v>
+        <v>6.7000000000000011</v>
       </c>
       <c r="H25">
+        <v>3.8</v>
+      </c>
+      <c r="I25">
+        <v>6.8000000000000007</v>
+      </c>
+      <c r="J25">
+        <v>2.1</v>
+      </c>
+      <c r="K25">
         <v>2.6</v>
       </c>
-      <c r="I25">
-        <v>0</v>
-      </c>
-      <c r="J25">
-        <v>5.7</v>
-      </c>
-      <c r="K25">
-        <v>0</v>
-      </c>
       <c r="L25">
-        <v>7.9</v>
+        <v>5.2</v>
       </c>
       <c r="M25">
-        <v>1.5</v>
+        <v>7.1000000000000014</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="O25">
-        <v>3.5999999999999996</v>
+        <v>3.1000000000000005</v>
       </c>
       <c r="P25">
-        <v>1.0999999999999999</v>
+        <v>0.89999999999999991</v>
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <v>0.25</v>
+        <v>0.22916666666666666</v>
       </c>
       <c r="B26">
         <v>0</v>
       </c>
       <c r="C26">
-        <v>6.0000000000000009</v>
+        <v>0</v>
       </c>
       <c r="D26">
-        <v>8.4</v>
+        <v>0</v>
       </c>
       <c r="E26">
-        <v>4.3</v>
+        <v>0</v>
       </c>
       <c r="F26">
-        <v>8.2999999999999989</v>
+        <v>5.5</v>
       </c>
       <c r="G26">
-        <v>3</v>
+        <v>6.9</v>
       </c>
       <c r="H26">
+        <v>4</v>
+      </c>
+      <c r="I26">
+        <v>6.9000000000000012</v>
+      </c>
+      <c r="J26">
+        <v>2.4</v>
+      </c>
+      <c r="K26">
         <v>2.6</v>
       </c>
-      <c r="I26">
-        <v>0</v>
-      </c>
-      <c r="J26">
-        <v>6.1000000000000005</v>
-      </c>
-      <c r="K26">
-        <v>0</v>
-      </c>
       <c r="L26">
-        <v>8.6999999999999993</v>
+        <v>5.3</v>
       </c>
       <c r="M26">
-        <v>1.9000000000000001</v>
+        <v>7.7</v>
       </c>
       <c r="N26">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="O26">
-        <v>4.3999999999999995</v>
+        <v>3.4</v>
       </c>
       <c r="P26">
-        <v>1.3</v>
+        <v>0.89999999999999991</v>
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
-        <v>0.26041666666666669</v>
+        <v>0.23958333333333334</v>
       </c>
       <c r="B27">
         <v>0</v>
       </c>
       <c r="C27">
-        <v>6.6000000000000005</v>
+        <v>0</v>
       </c>
       <c r="D27">
-        <v>9.4</v>
+        <v>0</v>
       </c>
       <c r="E27">
-        <v>4.5999999999999996</v>
+        <v>0</v>
       </c>
       <c r="F27">
-        <v>8.6999999999999993</v>
+        <v>5.7000000000000011</v>
       </c>
       <c r="G27">
-        <v>3.4999999999999996</v>
+        <v>7.6999999999999993</v>
       </c>
       <c r="H27">
-        <v>2.7</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="I27">
-        <v>0</v>
+        <v>7.3000000000000016</v>
       </c>
       <c r="J27">
-        <v>6.7</v>
+        <v>2.6999999999999997</v>
       </c>
       <c r="K27">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="L27">
-        <v>9.5</v>
+        <v>5.7</v>
       </c>
       <c r="M27">
-        <v>2</v>
+        <v>7.9</v>
       </c>
       <c r="N27">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="O27">
-        <v>5.3000000000000007</v>
+        <v>3.5999999999999996</v>
       </c>
       <c r="P27">
-        <v>1.5000000000000002</v>
+        <v>1.0999999999999999</v>
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
-        <v>0.27083333333333331</v>
+        <v>0.25</v>
       </c>
       <c r="B28">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="C28">
-        <v>6.9999999999999991</v>
+        <v>0</v>
       </c>
       <c r="D28">
-        <v>10.100000000000001</v>
+        <v>0</v>
       </c>
       <c r="E28">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F28">
-        <v>9.7999999999999989</v>
+        <v>6.0000000000000009</v>
       </c>
       <c r="G28">
-        <v>4</v>
+        <v>8.4</v>
       </c>
       <c r="H28">
-        <v>2.8</v>
+        <v>4.3</v>
       </c>
       <c r="I28">
-        <v>0.1</v>
+        <v>8.2999999999999989</v>
       </c>
       <c r="J28">
-        <v>7.3000000000000007</v>
+        <v>3</v>
       </c>
       <c r="K28">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="L28">
-        <v>10.5</v>
+        <v>6.1000000000000005</v>
       </c>
       <c r="M28">
-        <v>2.5</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="N28">
-        <v>0</v>
+        <v>1.9000000000000001</v>
       </c>
       <c r="O28">
-        <v>5.7000000000000011</v>
+        <v>4.3999999999999995</v>
       </c>
       <c r="P28">
-        <v>1.7000000000000002</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
-        <v>0.28125</v>
+        <v>0.26041666666666669</v>
       </c>
       <c r="B29">
-        <v>1.2000000000000002</v>
+        <v>0</v>
       </c>
       <c r="C29">
-        <v>7.5</v>
+        <v>0</v>
       </c>
       <c r="D29">
-        <v>11.200000000000001</v>
+        <v>0</v>
       </c>
       <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>6.6000000000000005</v>
+      </c>
+      <c r="G29">
+        <v>9.4</v>
+      </c>
+      <c r="H29">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="I29">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="J29">
+        <v>3.4999999999999996</v>
+      </c>
+      <c r="K29">
+        <v>2.7</v>
+      </c>
+      <c r="L29">
+        <v>6.7</v>
+      </c>
+      <c r="M29">
+        <v>9.5</v>
+      </c>
+      <c r="N29">
+        <v>2</v>
+      </c>
+      <c r="O29">
         <v>5.3000000000000007</v>
       </c>
-      <c r="F29">
-        <v>10.4</v>
-      </c>
-      <c r="G29">
-        <v>4.5</v>
-      </c>
-      <c r="H29">
-        <v>3</v>
-      </c>
-      <c r="I29">
-        <v>0.4</v>
-      </c>
-      <c r="J29">
-        <v>7.9</v>
-      </c>
-      <c r="K29">
-        <v>0.1</v>
-      </c>
-      <c r="L29">
-        <v>11.600000000000001</v>
-      </c>
-      <c r="M29">
-        <v>2.5999999999999996</v>
-      </c>
-      <c r="N29">
-        <v>0.2</v>
-      </c>
-      <c r="O29">
-        <v>6.6</v>
-      </c>
       <c r="P29">
-        <v>1.9</v>
+        <v>1.5000000000000002</v>
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
-        <v>0.29166666666666669</v>
+        <v>0.27083333333333331</v>
       </c>
       <c r="B30">
+        <v>0.2</v>
+      </c>
+      <c r="C30">
+        <v>0.1</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>6.9999999999999991</v>
+      </c>
+      <c r="G30">
+        <v>10.100000000000001</v>
+      </c>
+      <c r="H30">
+        <v>5</v>
+      </c>
+      <c r="I30">
+        <v>9.7999999999999989</v>
+      </c>
+      <c r="J30">
+        <v>4</v>
+      </c>
+      <c r="K30">
         <v>2.8</v>
       </c>
-      <c r="C30">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="D30">
-        <v>11.9</v>
-      </c>
-      <c r="E30">
-        <v>5.6999999999999993</v>
-      </c>
-      <c r="F30">
-        <v>11.2</v>
-      </c>
-      <c r="G30">
-        <v>4.7</v>
-      </c>
-      <c r="H30">
-        <v>3.2</v>
-      </c>
-      <c r="I30">
-        <v>0.9</v>
-      </c>
-      <c r="J30">
-        <v>8.6</v>
-      </c>
-      <c r="K30">
-        <v>0.3</v>
-      </c>
       <c r="L30">
-        <v>12.100000000000001</v>
+        <v>7.3000000000000007</v>
       </c>
       <c r="M30">
-        <v>2.8</v>
+        <v>10.5</v>
       </c>
       <c r="N30">
-        <v>0.4</v>
+        <v>2.5</v>
       </c>
       <c r="O30">
-        <v>6.7</v>
+        <v>5.7000000000000011</v>
       </c>
       <c r="P30">
-        <v>2.1</v>
+        <v>1.7000000000000002</v>
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
-        <v>0.30208333333333331</v>
+        <v>0.28125</v>
       </c>
       <c r="B31">
-        <v>4.5999999999999996</v>
+        <v>1.2000000000000002</v>
       </c>
       <c r="C31">
-        <v>8.7000000000000011</v>
+        <v>0.4</v>
       </c>
       <c r="D31">
-        <v>12.599999999999998</v>
+        <v>0.1</v>
       </c>
       <c r="E31">
-        <v>6.3</v>
+        <v>0.2</v>
       </c>
       <c r="F31">
-        <v>11.999999999999998</v>
+        <v>7.5</v>
       </c>
       <c r="G31">
-        <v>5.0999999999999996</v>
+        <v>11.200000000000001</v>
       </c>
       <c r="H31">
-        <v>3.5</v>
+        <v>5.3000000000000007</v>
       </c>
       <c r="I31">
-        <v>1.6</v>
+        <v>10.4</v>
       </c>
       <c r="J31">
-        <v>9</v>
+        <v>4.5</v>
       </c>
       <c r="K31">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="L31">
-        <v>13.1</v>
+        <v>7.9</v>
       </c>
       <c r="M31">
-        <v>3</v>
+        <v>11.600000000000001</v>
       </c>
       <c r="N31">
-        <v>0.8</v>
+        <v>2.5999999999999996</v>
       </c>
       <c r="O31">
-        <v>7.1</v>
+        <v>6.6</v>
       </c>
       <c r="P31">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
-        <v>0.3125</v>
+        <v>0.29166666666666669</v>
       </c>
       <c r="B32">
-        <v>6.9</v>
+        <v>2.8</v>
       </c>
       <c r="C32">
-        <v>9.3000000000000007</v>
+        <v>0.9</v>
       </c>
       <c r="D32">
-        <v>13.3</v>
+        <v>0.3</v>
       </c>
       <c r="E32">
+        <v>0.4</v>
+      </c>
+      <c r="F32">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="G32">
+        <v>11.9</v>
+      </c>
+      <c r="H32">
+        <v>5.6999999999999993</v>
+      </c>
+      <c r="I32">
+        <v>11.2</v>
+      </c>
+      <c r="J32">
+        <v>4.7</v>
+      </c>
+      <c r="K32">
+        <v>3.2</v>
+      </c>
+      <c r="L32">
+        <v>8.6</v>
+      </c>
+      <c r="M32">
+        <v>12.100000000000001</v>
+      </c>
+      <c r="N32">
+        <v>2.8</v>
+      </c>
+      <c r="O32">
         <v>6.7</v>
-      </c>
-      <c r="F32">
-        <v>12.799999999999999</v>
-      </c>
-      <c r="G32">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="H32">
-        <v>3.9</v>
-      </c>
-      <c r="I32">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="J32">
-        <v>9.6999999999999993</v>
-      </c>
-      <c r="K32">
-        <v>0.7</v>
-      </c>
-      <c r="L32">
-        <v>13.7</v>
-      </c>
-      <c r="M32">
-        <v>3</v>
-      </c>
-      <c r="N32">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="O32">
-        <v>7.3</v>
       </c>
       <c r="P32">
         <v>2.1</v>
@@ -2004,149 +1984,149 @@
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
-        <v>0.32291666666666669</v>
+        <v>0.30208333333333331</v>
       </c>
       <c r="B33">
-        <v>9.5</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="C33">
-        <v>10.1</v>
+        <v>1.6</v>
       </c>
       <c r="D33">
-        <v>14</v>
+        <v>0.5</v>
       </c>
       <c r="E33">
-        <v>7.3</v>
+        <v>0.8</v>
       </c>
       <c r="F33">
-        <v>13.700000000000001</v>
+        <v>8.7000000000000011</v>
       </c>
       <c r="G33">
-        <v>5.1999999999999993</v>
+        <v>12.599999999999998</v>
       </c>
       <c r="H33">
-        <v>4.4000000000000004</v>
+        <v>6.3</v>
       </c>
       <c r="I33">
-        <v>3.2</v>
+        <v>11.999999999999998</v>
       </c>
       <c r="J33">
-        <v>10.3</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="K33">
-        <v>1</v>
+        <v>3.5</v>
       </c>
       <c r="L33">
-        <v>14.7</v>
+        <v>9</v>
       </c>
       <c r="M33">
-        <v>3.1</v>
+        <v>13.1</v>
       </c>
       <c r="N33">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="O33">
-        <v>7.4999999999999991</v>
+        <v>7.1</v>
       </c>
       <c r="P33">
-        <v>2.2000000000000002</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
-        <v>0.33333333333333331</v>
+        <v>0.3125</v>
       </c>
       <c r="B34">
-        <v>12.5</v>
+        <v>6.9</v>
       </c>
       <c r="C34">
-        <v>11.2</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="D34">
-        <v>15.2</v>
+        <v>0.7</v>
       </c>
       <c r="E34">
-        <v>8.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="F34">
-        <v>14.700000000000003</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="G34">
-        <v>5.3</v>
+        <v>13.3</v>
       </c>
       <c r="H34">
+        <v>6.7</v>
+      </c>
+      <c r="I34">
+        <v>12.799999999999999</v>
+      </c>
+      <c r="J34">
         <v>5.0999999999999996</v>
       </c>
-      <c r="I34">
-        <v>4.2</v>
-      </c>
-      <c r="J34">
-        <v>11.1</v>
-      </c>
       <c r="K34">
-        <v>1.3</v>
+        <v>3.9</v>
       </c>
       <c r="L34">
-        <v>15.7</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="M34">
-        <v>3.1</v>
+        <v>13.7</v>
       </c>
       <c r="N34">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O34">
-        <v>7.5999999999999988</v>
+        <v>7.3</v>
       </c>
       <c r="P34">
-        <v>2.2000000000000002</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
-        <v>0.34375</v>
+        <v>0.32291666666666669</v>
       </c>
       <c r="B35">
-        <v>15.799999999999999</v>
+        <v>9.5</v>
       </c>
       <c r="C35">
-        <v>12.3</v>
+        <v>3.2</v>
       </c>
       <c r="D35">
-        <v>16.2</v>
+        <v>1</v>
       </c>
       <c r="E35">
-        <v>8.8000000000000007</v>
+        <v>1.5</v>
       </c>
       <c r="F35">
-        <v>15.900000000000002</v>
+        <v>10.1</v>
       </c>
       <c r="G35">
-        <v>5.3</v>
+        <v>14</v>
       </c>
       <c r="H35">
-        <v>5.8</v>
+        <v>7.3</v>
       </c>
       <c r="I35">
-        <v>5.3</v>
+        <v>13.700000000000001</v>
       </c>
       <c r="J35">
-        <v>11.899999999999999</v>
+        <v>5.1999999999999993</v>
       </c>
       <c r="K35">
-        <v>1.7</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="L35">
-        <v>16.799999999999997</v>
+        <v>10.3</v>
       </c>
       <c r="M35">
-        <v>3.2</v>
+        <v>14.7</v>
       </c>
       <c r="N35">
-        <v>2.6</v>
+        <v>3.1</v>
       </c>
       <c r="O35">
-        <v>7.6999999999999984</v>
+        <v>7.4999999999999991</v>
       </c>
       <c r="P35">
         <v>2.2000000000000002</v>
@@ -2154,149 +2134,149 @@
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
-        <v>0.35416666666666669</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="B36">
-        <v>19.3</v>
+        <v>12.5</v>
       </c>
       <c r="C36">
-        <v>13.4</v>
+        <v>4.2</v>
       </c>
       <c r="D36">
-        <v>17.3</v>
+        <v>1.3</v>
       </c>
       <c r="E36">
-        <v>9.5</v>
+        <v>2</v>
       </c>
       <c r="F36">
-        <v>17</v>
+        <v>11.2</v>
       </c>
       <c r="G36">
-        <v>5.4</v>
+        <v>15.2</v>
       </c>
       <c r="H36">
-        <v>6.4</v>
+        <v>8.1</v>
       </c>
       <c r="I36">
-        <v>6.5</v>
+        <v>14.700000000000003</v>
       </c>
       <c r="J36">
-        <v>12.900000000000002</v>
+        <v>5.3</v>
       </c>
       <c r="K36">
-        <v>2.1</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="L36">
-        <v>18</v>
+        <v>11.1</v>
       </c>
       <c r="M36">
-        <v>3.2</v>
+        <v>15.7</v>
       </c>
       <c r="N36">
         <v>3.1</v>
       </c>
       <c r="O36">
-        <v>7.7999999999999989</v>
+        <v>7.5999999999999988</v>
       </c>
       <c r="P36">
-        <v>2.4</v>
+        <v>2.2000000000000002</v>
       </c>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
-        <v>0.36458333333333331</v>
+        <v>0.34375</v>
       </c>
       <c r="B37">
-        <v>23</v>
+        <v>15.799999999999999</v>
       </c>
       <c r="C37">
-        <v>14.200000000000001</v>
+        <v>5.3</v>
       </c>
       <c r="D37">
-        <v>17.899999999999999</v>
+        <v>1.7</v>
       </c>
       <c r="E37">
-        <v>10.100000000000001</v>
+        <v>2.6</v>
       </c>
       <c r="F37">
-        <v>17.700000000000003</v>
+        <v>12.3</v>
       </c>
       <c r="G37">
-        <v>5.7</v>
+        <v>16.2</v>
       </c>
       <c r="H37">
-        <v>6.9</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="I37">
-        <v>7.8</v>
+        <v>15.900000000000002</v>
       </c>
       <c r="J37">
-        <v>13.5</v>
+        <v>5.3</v>
       </c>
       <c r="K37">
-        <v>2.5</v>
+        <v>5.8</v>
       </c>
       <c r="L37">
-        <v>18.799999999999997</v>
+        <v>11.899999999999999</v>
       </c>
       <c r="M37">
-        <v>3.3000000000000003</v>
+        <v>16.799999999999997</v>
       </c>
       <c r="N37">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="O37">
-        <v>7.8999999999999995</v>
+        <v>7.6999999999999984</v>
       </c>
       <c r="P37">
-        <v>2.4</v>
+        <v>2.2000000000000002</v>
       </c>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
-        <v>0.375</v>
+        <v>0.35416666666666669</v>
       </c>
       <c r="B38">
-        <v>27.099999999999998</v>
+        <v>19.3</v>
       </c>
       <c r="C38">
-        <v>14.600000000000001</v>
+        <v>6.5</v>
       </c>
       <c r="D38">
-        <v>18.3</v>
+        <v>2.1</v>
       </c>
       <c r="E38">
-        <v>10.5</v>
+        <v>3.1</v>
       </c>
       <c r="F38">
-        <v>18.100000000000001</v>
+        <v>13.4</v>
       </c>
       <c r="G38">
-        <v>5.8000000000000007</v>
+        <v>17.3</v>
       </c>
       <c r="H38">
-        <v>7.2</v>
+        <v>9.5</v>
       </c>
       <c r="I38">
-        <v>9.1999999999999993</v>
+        <v>17</v>
       </c>
       <c r="J38">
-        <v>13.9</v>
+        <v>5.4</v>
       </c>
       <c r="K38">
-        <v>2.9</v>
+        <v>6.4</v>
       </c>
       <c r="L38">
-        <v>19.199999999999996</v>
+        <v>12.900000000000002</v>
       </c>
       <c r="M38">
-        <v>3.4000000000000004</v>
+        <v>18</v>
       </c>
       <c r="N38">
-        <v>4.4000000000000004</v>
+        <v>3.2</v>
       </c>
       <c r="O38">
-        <v>8.1</v>
+        <v>7.7999999999999989</v>
       </c>
       <c r="P38">
         <v>2.4</v>
@@ -2304,46 +2284,46 @@
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
-        <v>0.38541666666666669</v>
+        <v>0.36458333333333331</v>
       </c>
       <c r="B39">
-        <v>31.2</v>
+        <v>23</v>
       </c>
       <c r="C39">
-        <v>14.8</v>
+        <v>7.8</v>
       </c>
       <c r="D39">
-        <v>18.399999999999999</v>
+        <v>2.5</v>
       </c>
       <c r="E39">
-        <v>10.600000000000001</v>
+        <v>3.8</v>
       </c>
       <c r="F39">
-        <v>18.3</v>
+        <v>14.200000000000001</v>
       </c>
       <c r="G39">
+        <v>17.899999999999999</v>
+      </c>
+      <c r="H39">
+        <v>10.100000000000001</v>
+      </c>
+      <c r="I39">
+        <v>17.700000000000003</v>
+      </c>
+      <c r="J39">
         <v>5.7</v>
       </c>
-      <c r="H39">
-        <v>7.3</v>
-      </c>
-      <c r="I39">
-        <v>10.6</v>
-      </c>
-      <c r="J39">
-        <v>14</v>
-      </c>
       <c r="K39">
-        <v>3.4</v>
+        <v>6.9</v>
       </c>
       <c r="L39">
-        <v>19.399999999999999</v>
+        <v>13.5</v>
       </c>
       <c r="M39">
+        <v>18.799999999999997</v>
+      </c>
+      <c r="N39">
         <v>3.3000000000000003</v>
-      </c>
-      <c r="N39">
-        <v>5.0999999999999996</v>
       </c>
       <c r="O39">
         <v>7.8999999999999995</v>
@@ -2354,49 +2334,49 @@
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
-        <v>0.39583333333333331</v>
+        <v>0.375</v>
       </c>
       <c r="B40">
-        <v>35.6</v>
+        <v>27.099999999999998</v>
       </c>
       <c r="C40">
-        <v>14.700000000000001</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="D40">
-        <v>18.5</v>
+        <v>2.9</v>
       </c>
       <c r="E40">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="F40">
+        <v>14.600000000000001</v>
+      </c>
+      <c r="G40">
+        <v>18.3</v>
+      </c>
+      <c r="H40">
         <v>10.5</v>
       </c>
-      <c r="F40">
-        <v>18.400000000000002</v>
-      </c>
-      <c r="G40">
-        <v>5.5</v>
-      </c>
-      <c r="H40">
-        <v>7.4</v>
-      </c>
       <c r="I40">
-        <v>12</v>
+        <v>18.100000000000001</v>
       </c>
       <c r="J40">
-        <v>14.000000000000002</v>
+        <v>5.8000000000000007</v>
       </c>
       <c r="K40">
-        <v>3.8</v>
+        <v>7.2</v>
       </c>
       <c r="L40">
-        <v>19.299999999999997</v>
+        <v>13.9</v>
       </c>
       <c r="M40">
-        <v>3.2</v>
+        <v>19.199999999999996</v>
       </c>
       <c r="N40">
-        <v>5.8</v>
+        <v>3.4000000000000004</v>
       </c>
       <c r="O40">
-        <v>7.8999999999999995</v>
+        <v>8.1</v>
       </c>
       <c r="P40">
         <v>2.4</v>
@@ -2404,49 +2384,49 @@
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
-        <v>0.40625</v>
+        <v>0.38541666666666669</v>
       </c>
       <c r="B41">
-        <v>39.900000000000006</v>
+        <v>31.2</v>
       </c>
       <c r="C41">
+        <v>10.6</v>
+      </c>
+      <c r="D41">
+        <v>3.4</v>
+      </c>
+      <c r="E41">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="F41">
         <v>14.8</v>
       </c>
-      <c r="D41">
-        <v>18.5</v>
-      </c>
-      <c r="E41">
-        <v>10.5</v>
-      </c>
-      <c r="F41">
-        <v>18.400000000000002</v>
-      </c>
       <c r="G41">
-        <v>5.4</v>
+        <v>18.399999999999999</v>
       </c>
       <c r="H41">
-        <v>7.4</v>
+        <v>10.600000000000001</v>
       </c>
       <c r="I41">
-        <v>13.5</v>
+        <v>18.3</v>
       </c>
       <c r="J41">
-        <v>14.000000000000002</v>
+        <v>5.7</v>
       </c>
       <c r="K41">
-        <v>4.3</v>
+        <v>7.3</v>
       </c>
       <c r="L41">
-        <v>19.2</v>
+        <v>14</v>
       </c>
       <c r="M41">
-        <v>3.2</v>
+        <v>19.399999999999999</v>
       </c>
       <c r="N41">
-        <v>6.5</v>
+        <v>3.3000000000000003</v>
       </c>
       <c r="O41">
-        <v>7.7999999999999989</v>
+        <v>7.8999999999999995</v>
       </c>
       <c r="P41">
         <v>2.4</v>
@@ -2454,149 +2434,149 @@
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
-        <v>0.41666666666666669</v>
+        <v>0.39583333333333331</v>
       </c>
       <c r="B42">
-        <v>44.300000000000004</v>
+        <v>35.6</v>
       </c>
       <c r="C42">
+        <v>12</v>
+      </c>
+      <c r="D42">
+        <v>3.8</v>
+      </c>
+      <c r="E42">
+        <v>5.8</v>
+      </c>
+      <c r="F42">
         <v>14.700000000000001</v>
       </c>
-      <c r="D42">
-        <v>18.2</v>
-      </c>
-      <c r="E42">
+      <c r="G42">
+        <v>18.5</v>
+      </c>
+      <c r="H42">
         <v>10.5</v>
       </c>
-      <c r="F42">
-        <v>18.300000000000004</v>
-      </c>
-      <c r="G42">
-        <v>5.3</v>
-      </c>
-      <c r="H42">
+      <c r="I42">
+        <v>18.400000000000002</v>
+      </c>
+      <c r="J42">
+        <v>5.5</v>
+      </c>
+      <c r="K42">
         <v>7.4</v>
       </c>
-      <c r="I42">
-        <v>15</v>
-      </c>
-      <c r="J42">
-        <v>13.7</v>
-      </c>
-      <c r="K42">
-        <v>4.8</v>
-      </c>
       <c r="L42">
-        <v>19.199999999999996</v>
+        <v>14.000000000000002</v>
       </c>
       <c r="M42">
+        <v>19.299999999999997</v>
+      </c>
+      <c r="N42">
         <v>3.2</v>
       </c>
-      <c r="N42">
-        <v>7.2</v>
-      </c>
       <c r="O42">
-        <v>7.6999999999999984</v>
+        <v>7.8999999999999995</v>
       </c>
       <c r="P42">
-        <v>2.2000000000000002</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
-        <v>0.42708333333333331</v>
+        <v>0.40625</v>
       </c>
       <c r="B43">
-        <v>48.800000000000004</v>
+        <v>39.900000000000006</v>
       </c>
       <c r="C43">
+        <v>13.5</v>
+      </c>
+      <c r="D43">
+        <v>4.3</v>
+      </c>
+      <c r="E43">
+        <v>6.5</v>
+      </c>
+      <c r="F43">
         <v>14.8</v>
       </c>
-      <c r="D43">
-        <v>18.299999999999997</v>
-      </c>
-      <c r="E43">
-        <v>10.6</v>
-      </c>
-      <c r="F43">
+      <c r="G43">
+        <v>18.5</v>
+      </c>
+      <c r="H43">
+        <v>10.5</v>
+      </c>
+      <c r="I43">
         <v>18.400000000000002</v>
       </c>
-      <c r="G43">
-        <v>5.3</v>
-      </c>
-      <c r="H43">
+      <c r="J43">
+        <v>5.4</v>
+      </c>
+      <c r="K43">
         <v>7.4</v>
       </c>
-      <c r="I43">
-        <v>16.5</v>
-      </c>
-      <c r="J43">
-        <v>13.8</v>
-      </c>
-      <c r="K43">
-        <v>5.3</v>
-      </c>
       <c r="L43">
-        <v>19.100000000000001</v>
+        <v>14.000000000000002</v>
       </c>
       <c r="M43">
+        <v>19.2</v>
+      </c>
+      <c r="N43">
         <v>3.2</v>
       </c>
-      <c r="N43">
-        <v>7.9</v>
-      </c>
       <c r="O43">
-        <v>7.5999999999999988</v>
+        <v>7.7999999999999989</v>
       </c>
       <c r="P43">
-        <v>2.2000000000000002</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
-        <v>0.4375</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="B44">
-        <v>53.1</v>
+        <v>44.300000000000004</v>
       </c>
       <c r="C44">
-        <v>14.8</v>
+        <v>15</v>
       </c>
       <c r="D44">
+        <v>4.8</v>
+      </c>
+      <c r="E44">
+        <v>7.2</v>
+      </c>
+      <c r="F44">
+        <v>14.700000000000001</v>
+      </c>
+      <c r="G44">
         <v>18.2</v>
       </c>
-      <c r="E44">
-        <v>10.7</v>
-      </c>
-      <c r="F44">
+      <c r="H44">
+        <v>10.5</v>
+      </c>
+      <c r="I44">
         <v>18.300000000000004</v>
       </c>
-      <c r="G44">
+      <c r="J44">
         <v>5.3</v>
       </c>
-      <c r="H44">
-        <v>7.5</v>
-      </c>
-      <c r="I44">
-        <v>18</v>
-      </c>
-      <c r="J44">
-        <v>13.8</v>
-      </c>
       <c r="K44">
-        <v>5.7</v>
+        <v>7.4</v>
       </c>
       <c r="L44">
-        <v>19.100000000000001</v>
+        <v>13.7</v>
       </c>
       <c r="M44">
-        <v>3.1</v>
+        <v>19.199999999999996</v>
       </c>
       <c r="N44">
-        <v>8.6</v>
+        <v>3.2</v>
       </c>
       <c r="O44">
-        <v>7.5999999999999988</v>
+        <v>7.6999999999999984</v>
       </c>
       <c r="P44">
         <v>2.2000000000000002</v>
@@ -2604,46 +2584,46 @@
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
-        <v>0.44791666666666669</v>
+        <v>0.42708333333333331</v>
       </c>
       <c r="B45">
-        <v>57.4</v>
+        <v>48.800000000000004</v>
       </c>
       <c r="C45">
-        <v>14.900000000000002</v>
+        <v>16.5</v>
       </c>
       <c r="D45">
-        <v>18.2</v>
+        <v>5.3</v>
       </c>
       <c r="E45">
-        <v>10.7</v>
+        <v>7.9</v>
       </c>
       <c r="F45">
+        <v>14.8</v>
+      </c>
+      <c r="G45">
+        <v>18.299999999999997</v>
+      </c>
+      <c r="H45">
+        <v>10.6</v>
+      </c>
+      <c r="I45">
         <v>18.400000000000002</v>
       </c>
-      <c r="G45">
+      <c r="J45">
         <v>5.3</v>
       </c>
-      <c r="H45">
-        <v>7.6</v>
-      </c>
-      <c r="I45">
-        <v>19.5</v>
-      </c>
-      <c r="J45">
-        <v>13.899999999999999</v>
-      </c>
       <c r="K45">
-        <v>6.2</v>
+        <v>7.4</v>
       </c>
       <c r="L45">
-        <v>19.2</v>
+        <v>13.8</v>
       </c>
       <c r="M45">
-        <v>3.1</v>
+        <v>19.100000000000001</v>
       </c>
       <c r="N45">
-        <v>9.3000000000000007</v>
+        <v>3.2</v>
       </c>
       <c r="O45">
         <v>7.5999999999999988</v>
@@ -2654,46 +2634,46 @@
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
-        <v>0.45833333333333331</v>
+        <v>0.4375</v>
       </c>
       <c r="B46">
-        <v>61.5</v>
+        <v>53.1</v>
       </c>
       <c r="C46">
-        <v>15.100000000000001</v>
+        <v>18</v>
       </c>
       <c r="D46">
-        <v>18.3</v>
+        <v>5.7</v>
       </c>
       <c r="E46">
-        <v>10.799999999999999</v>
+        <v>8.6</v>
       </c>
       <c r="F46">
-        <v>18.5</v>
+        <v>14.8</v>
       </c>
       <c r="G46">
+        <v>18.2</v>
+      </c>
+      <c r="H46">
+        <v>10.7</v>
+      </c>
+      <c r="I46">
+        <v>18.300000000000004</v>
+      </c>
+      <c r="J46">
         <v>5.3</v>
       </c>
-      <c r="H46">
-        <v>7.6</v>
-      </c>
-      <c r="I46">
-        <v>20.9</v>
-      </c>
-      <c r="J46">
-        <v>14</v>
-      </c>
       <c r="K46">
-        <v>6.6</v>
+        <v>7.5</v>
       </c>
       <c r="L46">
-        <v>19.3</v>
+        <v>13.8</v>
       </c>
       <c r="M46">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="N46">
         <v>3.1</v>
-      </c>
-      <c r="N46">
-        <v>10</v>
       </c>
       <c r="O46">
         <v>7.5999999999999988</v>
@@ -2704,49 +2684,49 @@
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
-        <v>0.46875</v>
+        <v>0.44791666666666669</v>
       </c>
       <c r="B47">
-        <v>65.5</v>
+        <v>57.4</v>
       </c>
       <c r="C47">
-        <v>15.100000000000001</v>
+        <v>19.5</v>
       </c>
       <c r="D47">
-        <v>18.600000000000001</v>
+        <v>6.2</v>
       </c>
       <c r="E47">
-        <v>10.9</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="F47">
-        <v>18.8</v>
+        <v>14.900000000000002</v>
       </c>
       <c r="G47">
+        <v>18.2</v>
+      </c>
+      <c r="H47">
+        <v>10.7</v>
+      </c>
+      <c r="I47">
+        <v>18.400000000000002</v>
+      </c>
+      <c r="J47">
         <v>5.3</v>
       </c>
-      <c r="H47">
-        <v>7.7</v>
-      </c>
-      <c r="I47">
-        <v>22.2</v>
-      </c>
-      <c r="J47">
-        <v>14.099999999999998</v>
-      </c>
       <c r="K47">
-        <v>7.1</v>
+        <v>7.6</v>
       </c>
       <c r="L47">
-        <v>19.5</v>
+        <v>13.899999999999999</v>
       </c>
       <c r="M47">
-        <v>3.2</v>
+        <v>19.2</v>
       </c>
       <c r="N47">
-        <v>10.7</v>
+        <v>3.1</v>
       </c>
       <c r="O47">
-        <v>7.6999999999999984</v>
+        <v>7.5999999999999988</v>
       </c>
       <c r="P47">
         <v>2.2000000000000002</v>
@@ -2754,346 +2734,346 @@
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
-        <v>0.47916666666666669</v>
+        <v>0.45833333333333331</v>
       </c>
       <c r="B48">
-        <v>69.3</v>
+        <v>61.5</v>
       </c>
       <c r="C48">
-        <v>15.3</v>
+        <v>20.9</v>
       </c>
       <c r="D48">
-        <v>18.899999999999999</v>
+        <v>6.6</v>
       </c>
       <c r="E48">
-        <v>10.9</v>
+        <v>10</v>
       </c>
       <c r="F48">
-        <v>18.900000000000002</v>
+        <v>15.100000000000001</v>
       </c>
       <c r="G48">
-        <v>5.4</v>
+        <v>18.3</v>
       </c>
       <c r="H48">
-        <v>7.7</v>
+        <v>10.799999999999999</v>
       </c>
       <c r="I48">
-        <v>23.5</v>
+        <v>18.5</v>
       </c>
       <c r="J48">
-        <v>14.4</v>
+        <v>5.3</v>
       </c>
       <c r="K48">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="L48">
-        <v>19.799999999999997</v>
+        <v>14</v>
       </c>
       <c r="M48">
-        <v>3.2</v>
+        <v>19.3</v>
       </c>
       <c r="N48">
-        <v>11.3</v>
+        <v>3.1</v>
       </c>
       <c r="O48">
-        <v>7.7999999999999989</v>
+        <v>7.5999999999999988</v>
       </c>
       <c r="P48">
-        <v>2.4</v>
+        <v>2.2000000000000002</v>
       </c>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
-        <v>0.48958333333333331</v>
+        <v>0.46875</v>
       </c>
       <c r="B49">
-        <v>72.8</v>
+        <v>65.5</v>
       </c>
       <c r="C49">
-        <v>15.3</v>
+        <v>22.2</v>
       </c>
       <c r="D49">
-        <v>18.899999999999999</v>
+        <v>7.1</v>
       </c>
       <c r="E49">
-        <v>11.100000000000001</v>
+        <v>10.7</v>
       </c>
       <c r="F49">
-        <v>18.900000000000002</v>
+        <v>15.100000000000001</v>
       </c>
       <c r="G49">
-        <v>5.8000000000000007</v>
+        <v>18.600000000000001</v>
       </c>
       <c r="H49">
+        <v>10.9</v>
+      </c>
+      <c r="I49">
+        <v>18.8</v>
+      </c>
+      <c r="J49">
+        <v>5.3</v>
+      </c>
+      <c r="K49">
         <v>7.7</v>
       </c>
-      <c r="I49">
-        <v>24.7</v>
-      </c>
-      <c r="J49">
-        <v>14.4</v>
-      </c>
-      <c r="K49">
-        <v>7.9</v>
-      </c>
       <c r="L49">
-        <v>20.100000000000001</v>
+        <v>14.099999999999998</v>
       </c>
       <c r="M49">
-        <v>3.4000000000000004</v>
+        <v>19.5</v>
       </c>
       <c r="N49">
-        <v>11.9</v>
+        <v>3.2</v>
       </c>
       <c r="O49">
-        <v>8.1999999999999993</v>
+        <v>7.6999999999999984</v>
       </c>
       <c r="P49">
-        <v>2.4</v>
+        <v>2.2000000000000002</v>
       </c>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
-        <v>0.5</v>
+        <v>0.47916666666666669</v>
       </c>
       <c r="B50">
-        <v>76.199999999999989</v>
+        <v>69.3</v>
       </c>
       <c r="C50">
-        <v>15.100000000000001</v>
+        <v>23.5</v>
       </c>
       <c r="D50">
+        <v>7.5</v>
+      </c>
+      <c r="E50">
+        <v>11.3</v>
+      </c>
+      <c r="F50">
+        <v>15.3</v>
+      </c>
+      <c r="G50">
         <v>18.899999999999999</v>
       </c>
-      <c r="E50">
-        <v>11</v>
-      </c>
-      <c r="F50">
-        <v>19.2</v>
-      </c>
-      <c r="G50">
-        <v>5.9</v>
-      </c>
       <c r="H50">
-        <v>7.6</v>
+        <v>10.9</v>
       </c>
       <c r="I50">
-        <v>25.8</v>
+        <v>18.900000000000002</v>
       </c>
       <c r="J50">
-        <v>14.6</v>
+        <v>5.4</v>
       </c>
       <c r="K50">
-        <v>8.1999999999999993</v>
+        <v>7.7</v>
       </c>
       <c r="L50">
-        <v>20.399999999999999</v>
+        <v>14.4</v>
       </c>
       <c r="M50">
-        <v>3.4000000000000004</v>
+        <v>19.799999999999997</v>
       </c>
       <c r="N50">
-        <v>12.4</v>
+        <v>3.2</v>
       </c>
       <c r="O50">
-        <v>8.4</v>
+        <v>7.7999999999999989</v>
       </c>
       <c r="P50">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
-        <v>0.51041666666666663</v>
+        <v>0.48958333333333331</v>
       </c>
       <c r="B51">
-        <v>79.100000000000009</v>
+        <v>72.8</v>
       </c>
       <c r="C51">
-        <v>15.1</v>
+        <v>24.7</v>
       </c>
       <c r="D51">
-        <v>19.199999999999996</v>
+        <v>7.9</v>
       </c>
       <c r="E51">
-        <v>10.8</v>
+        <v>11.9</v>
       </c>
       <c r="F51">
-        <v>19.3</v>
+        <v>15.3</v>
       </c>
       <c r="G51">
-        <v>6</v>
+        <v>18.899999999999999</v>
       </c>
       <c r="H51">
-        <v>7.4</v>
+        <v>11.100000000000001</v>
       </c>
       <c r="I51">
-        <v>26.8</v>
+        <v>18.900000000000002</v>
       </c>
       <c r="J51">
+        <v>5.8000000000000007</v>
+      </c>
+      <c r="K51">
+        <v>7.7</v>
+      </c>
+      <c r="L51">
         <v>14.4</v>
       </c>
-      <c r="K51">
-        <v>8.5</v>
-      </c>
-      <c r="L51">
-        <v>20.299999999999997</v>
-      </c>
       <c r="M51">
-        <v>3.5</v>
+        <v>20.100000000000001</v>
       </c>
       <c r="N51">
-        <v>12.9</v>
+        <v>3.4000000000000004</v>
       </c>
       <c r="O51">
-        <v>8.6999999999999993</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="P51">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
-        <v>0.52083333333333337</v>
+        <v>0.5</v>
       </c>
       <c r="B52">
-        <v>81.599999999999994</v>
+        <v>76.199999999999989</v>
       </c>
       <c r="C52">
-        <v>15</v>
+        <v>25.8</v>
       </c>
       <c r="D52">
-        <v>19.099999999999998</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="E52">
-        <v>10.700000000000001</v>
+        <v>12.4</v>
       </c>
       <c r="F52">
-        <v>19</v>
+        <v>15.100000000000001</v>
       </c>
       <c r="G52">
-        <v>6.1</v>
+        <v>18.899999999999999</v>
       </c>
       <c r="H52">
-        <v>7.1</v>
+        <v>11</v>
       </c>
       <c r="I52">
-        <v>27.7</v>
+        <v>19.2</v>
       </c>
       <c r="J52">
-        <v>14.3</v>
+        <v>5.9</v>
       </c>
       <c r="K52">
-        <v>8.8000000000000007</v>
+        <v>7.6</v>
       </c>
       <c r="L52">
-        <v>20.099999999999998</v>
+        <v>14.6</v>
       </c>
       <c r="M52">
-        <v>3.5999999999999996</v>
+        <v>20.399999999999999</v>
       </c>
       <c r="N52">
-        <v>13.3</v>
+        <v>3.4000000000000004</v>
       </c>
       <c r="O52">
-        <v>8.8999999999999986</v>
+        <v>8.4</v>
       </c>
       <c r="P52">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
-        <v>0.53125</v>
+        <v>0.51041666666666663</v>
       </c>
       <c r="B53">
-        <v>84</v>
+        <v>79.100000000000009</v>
       </c>
       <c r="C53">
-        <v>14.700000000000001</v>
+        <v>26.8</v>
       </c>
       <c r="D53">
-        <v>18.899999999999999</v>
+        <v>8.5</v>
       </c>
       <c r="E53">
-        <v>10.5</v>
+        <v>12.9</v>
       </c>
       <c r="F53">
-        <v>18.7</v>
+        <v>15.1</v>
       </c>
       <c r="G53">
-        <v>6.3000000000000007</v>
+        <v>19.199999999999996</v>
       </c>
       <c r="H53">
-        <v>6.9</v>
+        <v>10.8</v>
       </c>
       <c r="I53">
-        <v>28.5</v>
+        <v>19.3</v>
       </c>
       <c r="J53">
-        <v>14.3</v>
+        <v>6</v>
       </c>
       <c r="K53">
-        <v>9</v>
+        <v>7.4</v>
       </c>
       <c r="L53">
-        <v>19.799999999999997</v>
+        <v>14.4</v>
       </c>
       <c r="M53">
-        <v>3.8000000000000003</v>
+        <v>20.299999999999997</v>
       </c>
       <c r="N53">
-        <v>13.7</v>
+        <v>3.5</v>
       </c>
       <c r="O53">
-        <v>8.8999999999999986</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="P53">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
-        <v>0.54166666666666663</v>
+        <v>0.52083333333333337</v>
       </c>
       <c r="B54">
-        <v>85.8</v>
+        <v>81.599999999999994</v>
       </c>
       <c r="C54">
-        <v>14.200000000000001</v>
+        <v>27.7</v>
       </c>
       <c r="D54">
-        <v>18.5</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="E54">
-        <v>10.1</v>
+        <v>13.3</v>
       </c>
       <c r="F54">
-        <v>18.199999999999996</v>
+        <v>15</v>
       </c>
       <c r="G54">
+        <v>19.099999999999998</v>
+      </c>
+      <c r="H54">
+        <v>10.700000000000001</v>
+      </c>
+      <c r="I54">
+        <v>19</v>
+      </c>
+      <c r="J54">
         <v>6.1</v>
       </c>
-      <c r="H54">
-        <v>6.6</v>
-      </c>
-      <c r="I54">
-        <v>29.1</v>
-      </c>
-      <c r="J54">
-        <v>13.8</v>
-      </c>
       <c r="K54">
-        <v>9.3000000000000007</v>
+        <v>7.1</v>
       </c>
       <c r="L54">
-        <v>19.399999999999999</v>
+        <v>14.3</v>
       </c>
       <c r="M54">
+        <v>20.099999999999998</v>
+      </c>
+      <c r="N54">
         <v>3.5999999999999996</v>
-      </c>
-      <c r="N54">
-        <v>14</v>
       </c>
       <c r="O54">
         <v>8.8999999999999986</v>
@@ -3104,349 +3084,349 @@
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
-        <v>0.55208333333333337</v>
+        <v>0.53125</v>
       </c>
       <c r="B55">
-        <v>87.2</v>
+        <v>84</v>
       </c>
       <c r="C55">
-        <v>13.5</v>
+        <v>28.5</v>
       </c>
       <c r="D55">
-        <v>17.999999999999996</v>
+        <v>9</v>
       </c>
       <c r="E55">
-        <v>9.8000000000000007</v>
+        <v>13.7</v>
       </c>
       <c r="F55">
-        <v>17.799999999999997</v>
+        <v>14.700000000000001</v>
       </c>
       <c r="G55">
-        <v>6</v>
+        <v>18.899999999999999</v>
       </c>
       <c r="H55">
-        <v>6.4</v>
+        <v>10.5</v>
       </c>
       <c r="I55">
-        <v>29.6</v>
+        <v>18.7</v>
       </c>
       <c r="J55">
-        <v>13.3</v>
+        <v>6.3000000000000007</v>
       </c>
       <c r="K55">
-        <v>9.4</v>
+        <v>6.9</v>
       </c>
       <c r="L55">
-        <v>19</v>
+        <v>14.3</v>
       </c>
       <c r="M55">
-        <v>3.5</v>
+        <v>19.799999999999997</v>
       </c>
       <c r="N55">
-        <v>14.2</v>
+        <v>3.8000000000000003</v>
       </c>
       <c r="O55">
-        <v>8.6999999999999993</v>
+        <v>8.8999999999999986</v>
       </c>
       <c r="P55">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
-        <v>0.5625</v>
+        <v>0.54166666666666663</v>
       </c>
       <c r="B56">
-        <v>88.3</v>
+        <v>85.8</v>
       </c>
       <c r="C56">
-        <v>13.200000000000001</v>
+        <v>29.1</v>
       </c>
       <c r="D56">
-        <v>17.299999999999997</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="E56">
-        <v>9.6</v>
+        <v>14</v>
       </c>
       <c r="F56">
-        <v>17</v>
+        <v>14.200000000000001</v>
       </c>
       <c r="G56">
-        <v>5.9</v>
+        <v>18.5</v>
       </c>
       <c r="H56">
-        <v>6.2</v>
+        <v>10.1</v>
       </c>
       <c r="I56">
-        <v>29.9</v>
+        <v>18.199999999999996</v>
       </c>
       <c r="J56">
-        <v>13.000000000000002</v>
+        <v>6.1</v>
       </c>
       <c r="K56">
-        <v>9.5</v>
+        <v>6.6</v>
       </c>
       <c r="L56">
-        <v>18.399999999999999</v>
+        <v>13.8</v>
       </c>
       <c r="M56">
-        <v>3.4000000000000004</v>
+        <v>19.399999999999999</v>
       </c>
       <c r="N56">
-        <v>14.4</v>
+        <v>3.5999999999999996</v>
       </c>
       <c r="O56">
-        <v>8.3000000000000007</v>
+        <v>8.8999999999999986</v>
       </c>
       <c r="P56">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
-        <v>0.57291666666666663</v>
+        <v>0.55208333333333337</v>
       </c>
       <c r="B57">
-        <v>88.9</v>
+        <v>87.2</v>
       </c>
       <c r="C57">
-        <v>12.9</v>
+        <v>29.6</v>
       </c>
       <c r="D57">
-        <v>16.899999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="E57">
-        <v>9.1</v>
+        <v>14.2</v>
       </c>
       <c r="F57">
-        <v>16.5</v>
+        <v>13.5</v>
       </c>
       <c r="G57">
-        <v>5.7</v>
+        <v>17.999999999999996</v>
       </c>
       <c r="H57">
-        <v>6.1</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="I57">
-        <v>30.2</v>
+        <v>17.799999999999997</v>
       </c>
       <c r="J57">
-        <v>12.5</v>
+        <v>6</v>
       </c>
       <c r="K57">
-        <v>9.6</v>
+        <v>6.4</v>
       </c>
       <c r="L57">
-        <v>17.5</v>
+        <v>13.3</v>
       </c>
       <c r="M57">
-        <v>3.3000000000000003</v>
+        <v>19</v>
       </c>
       <c r="N57">
-        <v>14.5</v>
+        <v>3.5</v>
       </c>
       <c r="O57">
-        <v>7.8999999999999995</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="P57">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
-        <v>0.58333333333333337</v>
+        <v>0.5625</v>
       </c>
       <c r="B58">
-        <v>89.100000000000009</v>
+        <v>88.3</v>
       </c>
       <c r="C58">
-        <v>12.700000000000001</v>
+        <v>29.9</v>
       </c>
       <c r="D58">
-        <v>16.3</v>
+        <v>9.5</v>
       </c>
       <c r="E58">
-        <v>9.1</v>
+        <v>14.4</v>
       </c>
       <c r="F58">
-        <v>16.100000000000001</v>
+        <v>13.200000000000001</v>
       </c>
       <c r="G58">
-        <v>5.3</v>
+        <v>17.299999999999997</v>
       </c>
       <c r="H58">
-        <v>6</v>
+        <v>9.6</v>
       </c>
       <c r="I58">
-        <v>30.2</v>
+        <v>17</v>
       </c>
       <c r="J58">
-        <v>12.2</v>
+        <v>5.9</v>
       </c>
       <c r="K58">
-        <v>9.6</v>
+        <v>6.2</v>
       </c>
       <c r="L58">
-        <v>17</v>
+        <v>13.000000000000002</v>
       </c>
       <c r="M58">
-        <v>3.1</v>
+        <v>18.399999999999999</v>
       </c>
       <c r="N58">
-        <v>14.5</v>
+        <v>3.4000000000000004</v>
       </c>
       <c r="O58">
-        <v>7.5999999999999988</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="P58">
-        <v>2.2000000000000002</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
-        <v>0.59375</v>
+        <v>0.57291666666666663</v>
       </c>
       <c r="B59">
         <v>88.9</v>
       </c>
       <c r="C59">
-        <v>12.299999999999999</v>
+        <v>30.2</v>
       </c>
       <c r="D59">
-        <v>15.9</v>
+        <v>9.6</v>
       </c>
       <c r="E59">
-        <v>9</v>
+        <v>14.5</v>
       </c>
       <c r="F59">
-        <v>16.000000000000004</v>
+        <v>12.9</v>
       </c>
       <c r="G59">
-        <v>5.0999999999999996</v>
+        <v>16.899999999999999</v>
       </c>
       <c r="H59">
-        <v>6</v>
+        <v>9.1</v>
       </c>
       <c r="I59">
-        <v>30.1</v>
+        <v>16.5</v>
       </c>
       <c r="J59">
-        <v>12.1</v>
+        <v>5.7</v>
       </c>
       <c r="K59">
-        <v>9.6</v>
+        <v>6.1</v>
       </c>
       <c r="L59">
-        <v>16.7</v>
+        <v>12.5</v>
       </c>
       <c r="M59">
-        <v>3.1</v>
+        <v>17.5</v>
       </c>
       <c r="N59">
-        <v>14.5</v>
+        <v>3.3000000000000003</v>
       </c>
       <c r="O59">
-        <v>7.4999999999999991</v>
+        <v>7.8999999999999995</v>
       </c>
       <c r="P59">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
-        <v>0.60416666666666663</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="B60">
-        <v>88.2</v>
+        <v>89.100000000000009</v>
       </c>
       <c r="C60">
-        <v>12.399999999999999</v>
+        <v>30.2</v>
       </c>
       <c r="D60">
-        <v>15.7</v>
+        <v>9.6</v>
       </c>
       <c r="E60">
+        <v>14.5</v>
+      </c>
+      <c r="F60">
+        <v>12.700000000000001</v>
+      </c>
+      <c r="G60">
+        <v>16.3</v>
+      </c>
+      <c r="H60">
         <v>9.1</v>
       </c>
-      <c r="F60">
-        <v>15.799999999999999</v>
-      </c>
-      <c r="G60">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="H60">
-        <v>6.1</v>
-      </c>
       <c r="I60">
-        <v>29.9</v>
+        <v>16.100000000000001</v>
       </c>
       <c r="J60">
-        <v>12.1</v>
+        <v>5.3</v>
       </c>
       <c r="K60">
-        <v>9.5</v>
+        <v>6</v>
       </c>
       <c r="L60">
-        <v>16.7</v>
+        <v>12.2</v>
       </c>
       <c r="M60">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="N60">
-        <v>14.4</v>
+        <v>3.1</v>
       </c>
       <c r="O60">
-        <v>7.1</v>
+        <v>7.5999999999999988</v>
       </c>
       <c r="P60">
-        <v>2.1</v>
+        <v>2.2000000000000002</v>
       </c>
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
-        <v>0.61458333333333337</v>
+        <v>0.59375</v>
       </c>
       <c r="B61">
-        <v>87.100000000000009</v>
+        <v>88.9</v>
       </c>
       <c r="C61">
-        <v>12.6</v>
+        <v>30.1</v>
       </c>
       <c r="D61">
-        <v>15.799999999999999</v>
+        <v>9.6</v>
       </c>
       <c r="E61">
+        <v>14.5</v>
+      </c>
+      <c r="F61">
+        <v>12.299999999999999</v>
+      </c>
+      <c r="G61">
+        <v>15.9</v>
+      </c>
+      <c r="H61">
         <v>9</v>
       </c>
-      <c r="F61">
-        <v>15.899999999999999</v>
-      </c>
-      <c r="G61">
-        <v>4.8</v>
-      </c>
-      <c r="H61">
-        <v>6.2</v>
-      </c>
       <c r="I61">
-        <v>29.5</v>
+        <v>16.000000000000004</v>
       </c>
       <c r="J61">
-        <v>12</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="K61">
-        <v>9.4</v>
+        <v>6</v>
       </c>
       <c r="L61">
-        <v>16.700000000000003</v>
+        <v>12.1</v>
       </c>
       <c r="M61">
-        <v>2.8</v>
+        <v>16.7</v>
       </c>
       <c r="N61">
-        <v>14.2</v>
+        <v>3.1</v>
       </c>
       <c r="O61">
-        <v>6.8999999999999995</v>
+        <v>7.4999999999999991</v>
       </c>
       <c r="P61">
         <v>2.1</v>
@@ -3454,346 +3434,346 @@
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
-        <v>0.625</v>
+        <v>0.60416666666666663</v>
       </c>
       <c r="B62">
-        <v>85.6</v>
+        <v>88.2</v>
       </c>
       <c r="C62">
-        <v>12.699999999999998</v>
+        <v>29.9</v>
       </c>
       <c r="D62">
-        <v>15.600000000000001</v>
+        <v>9.5</v>
       </c>
       <c r="E62">
+        <v>14.4</v>
+      </c>
+      <c r="F62">
+        <v>12.399999999999999</v>
+      </c>
+      <c r="G62">
+        <v>15.7</v>
+      </c>
+      <c r="H62">
         <v>9.1</v>
       </c>
-      <c r="F62">
-        <v>15.7</v>
-      </c>
-      <c r="G62">
-        <v>4.7</v>
-      </c>
-      <c r="H62">
-        <v>6.3</v>
-      </c>
       <c r="I62">
-        <v>29</v>
+        <v>15.799999999999999</v>
       </c>
       <c r="J62">
-        <v>11.899999999999999</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="K62">
-        <v>9.1999999999999993</v>
+        <v>6.1</v>
       </c>
       <c r="L62">
-        <v>16.600000000000001</v>
+        <v>12.1</v>
       </c>
       <c r="M62">
-        <v>2.6999999999999997</v>
+        <v>16.7</v>
       </c>
       <c r="N62">
-        <v>13.9</v>
+        <v>3</v>
       </c>
       <c r="O62">
-        <v>6.7</v>
+        <v>7.1</v>
       </c>
       <c r="P62">
-        <v>2</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="63" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
-        <v>0.63541666666666663</v>
+        <v>0.61458333333333337</v>
       </c>
       <c r="B63">
-        <v>83.6</v>
+        <v>87.100000000000009</v>
       </c>
       <c r="C63">
-        <v>12.599999999999998</v>
+        <v>29.5</v>
       </c>
       <c r="D63">
-        <v>15.700000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="E63">
-        <v>9.1999999999999993</v>
+        <v>14.2</v>
       </c>
       <c r="F63">
+        <v>12.6</v>
+      </c>
+      <c r="G63">
         <v>15.799999999999999</v>
       </c>
-      <c r="G63">
-        <v>4.6000000000000005</v>
-      </c>
       <c r="H63">
-        <v>6.4</v>
+        <v>9</v>
       </c>
       <c r="I63">
-        <v>28.4</v>
+        <v>15.899999999999999</v>
       </c>
       <c r="J63">
-        <v>11.8</v>
+        <v>4.8</v>
       </c>
       <c r="K63">
-        <v>9</v>
+        <v>6.2</v>
       </c>
       <c r="L63">
-        <v>16.600000000000001</v>
+        <v>12</v>
       </c>
       <c r="M63">
-        <v>2.5999999999999996</v>
+        <v>16.700000000000003</v>
       </c>
       <c r="N63">
-        <v>13.6</v>
+        <v>2.8</v>
       </c>
       <c r="O63">
-        <v>6.7</v>
+        <v>6.8999999999999995</v>
       </c>
       <c r="P63">
-        <v>2</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="64" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
-        <v>0.64583333333333337</v>
+        <v>0.625</v>
       </c>
       <c r="B64">
-        <v>81.3</v>
+        <v>85.6</v>
       </c>
       <c r="C64">
-        <v>12.799999999999999</v>
+        <v>29</v>
       </c>
       <c r="D64">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="E64">
+        <v>13.9</v>
+      </c>
+      <c r="F64">
+        <v>12.699999999999998</v>
+      </c>
+      <c r="G64">
+        <v>15.600000000000001</v>
+      </c>
+      <c r="H64">
+        <v>9.1</v>
+      </c>
+      <c r="I64">
         <v>15.7</v>
       </c>
-      <c r="E64">
-        <v>9.1999999999999993</v>
-      </c>
-      <c r="F64">
-        <v>15.799999999999999</v>
-      </c>
-      <c r="G64">
-        <v>4.6000000000000005</v>
-      </c>
-      <c r="H64">
-        <v>6.5</v>
-      </c>
-      <c r="I64">
-        <v>27.6</v>
-      </c>
       <c r="J64">
-        <v>11.9</v>
+        <v>4.7</v>
       </c>
       <c r="K64">
-        <v>8.8000000000000007</v>
+        <v>6.3</v>
       </c>
       <c r="L64">
-        <v>16.8</v>
+        <v>11.899999999999999</v>
       </c>
       <c r="M64">
-        <v>2.5999999999999996</v>
+        <v>16.600000000000001</v>
       </c>
       <c r="N64">
-        <v>13.2</v>
+        <v>2.6999999999999997</v>
       </c>
       <c r="O64">
         <v>6.7</v>
       </c>
       <c r="P64">
-        <v>1.9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
-        <v>0.65625</v>
+        <v>0.63541666666666663</v>
       </c>
       <c r="B65">
-        <v>78.7</v>
+        <v>83.6</v>
       </c>
       <c r="C65">
-        <v>12.7</v>
+        <v>28.4</v>
       </c>
       <c r="D65">
-        <v>15.600000000000001</v>
+        <v>9</v>
       </c>
       <c r="E65">
+        <v>13.6</v>
+      </c>
+      <c r="F65">
+        <v>12.599999999999998</v>
+      </c>
+      <c r="G65">
+        <v>15.700000000000001</v>
+      </c>
+      <c r="H65">
         <v>9.1999999999999993</v>
       </c>
-      <c r="F65">
-        <v>15.7</v>
-      </c>
-      <c r="G65">
-        <v>4.5</v>
-      </c>
-      <c r="H65">
-        <v>6.6</v>
-      </c>
       <c r="I65">
-        <v>26.7</v>
+        <v>15.799999999999999</v>
       </c>
       <c r="J65">
-        <v>12</v>
+        <v>4.6000000000000005</v>
       </c>
       <c r="K65">
-        <v>8.5</v>
+        <v>6.4</v>
       </c>
       <c r="L65">
-        <v>16.700000000000003</v>
+        <v>11.8</v>
       </c>
       <c r="M65">
+        <v>16.600000000000001</v>
+      </c>
+      <c r="N65">
         <v>2.5999999999999996</v>
       </c>
-      <c r="N65">
-        <v>12.8</v>
-      </c>
       <c r="O65">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="P65">
-        <v>1.9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
-        <v>0.66666666666666663</v>
+        <v>0.64583333333333337</v>
       </c>
       <c r="B66">
-        <v>75.7</v>
+        <v>81.3</v>
       </c>
       <c r="C66">
-        <v>12.7</v>
+        <v>27.6</v>
       </c>
       <c r="D66">
-        <v>15.5</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="E66">
+        <v>13.2</v>
+      </c>
+      <c r="F66">
+        <v>12.799999999999999</v>
+      </c>
+      <c r="G66">
+        <v>15.7</v>
+      </c>
+      <c r="H66">
         <v>9.1999999999999993</v>
       </c>
-      <c r="F66">
-        <v>15.6</v>
-      </c>
-      <c r="G66">
-        <v>4.5</v>
-      </c>
-      <c r="H66">
-        <v>6.6</v>
-      </c>
       <c r="I66">
-        <v>25.7</v>
+        <v>15.799999999999999</v>
       </c>
       <c r="J66">
-        <v>12</v>
+        <v>4.6000000000000005</v>
       </c>
       <c r="K66">
-        <v>8.1999999999999993</v>
+        <v>6.5</v>
       </c>
       <c r="L66">
-        <v>16.600000000000001</v>
+        <v>11.9</v>
       </c>
       <c r="M66">
+        <v>16.8</v>
+      </c>
+      <c r="N66">
         <v>2.5999999999999996</v>
       </c>
-      <c r="N66">
-        <v>12.3</v>
-      </c>
       <c r="O66">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="P66">
-        <v>1.7999999999999998</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="67" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
-        <v>0.67708333333333337</v>
+        <v>0.65625</v>
       </c>
       <c r="B67">
-        <v>72.400000000000006</v>
+        <v>78.7</v>
       </c>
       <c r="C67">
-        <v>12.6</v>
+        <v>26.7</v>
       </c>
       <c r="D67">
-        <v>15.400000000000002</v>
+        <v>8.5</v>
       </c>
       <c r="E67">
-        <v>9.1</v>
+        <v>12.8</v>
       </c>
       <c r="F67">
-        <v>15.6</v>
+        <v>12.7</v>
       </c>
       <c r="G67">
+        <v>15.600000000000001</v>
+      </c>
+      <c r="H67">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="I67">
+        <v>15.7</v>
+      </c>
+      <c r="J67">
         <v>4.5</v>
       </c>
-      <c r="H67">
-        <v>6.5</v>
-      </c>
-      <c r="I67">
-        <v>24.5</v>
-      </c>
-      <c r="J67">
-        <v>11.9</v>
-      </c>
       <c r="K67">
-        <v>7.8</v>
+        <v>6.6</v>
       </c>
       <c r="L67">
-        <v>16.5</v>
+        <v>12</v>
       </c>
       <c r="M67">
+        <v>16.700000000000003</v>
+      </c>
+      <c r="N67">
         <v>2.5999999999999996</v>
       </c>
-      <c r="N67">
-        <v>11.8</v>
-      </c>
       <c r="O67">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="P67">
-        <v>1.7999999999999998</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="68" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
-        <v>0.6875</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="B68">
-        <v>68.8</v>
+        <v>75.7</v>
       </c>
       <c r="C68">
-        <v>12.499999999999998</v>
+        <v>25.7</v>
       </c>
       <c r="D68">
-        <v>15.400000000000002</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="E68">
-        <v>9</v>
+        <v>12.3</v>
       </c>
       <c r="F68">
+        <v>12.7</v>
+      </c>
+      <c r="G68">
         <v>15.5</v>
       </c>
-      <c r="G68">
+      <c r="H68">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="I68">
+        <v>15.6</v>
+      </c>
+      <c r="J68">
         <v>4.5</v>
       </c>
-      <c r="H68">
-        <v>6.5</v>
-      </c>
-      <c r="I68">
-        <v>23.3</v>
-      </c>
-      <c r="J68">
-        <v>11.9</v>
-      </c>
       <c r="K68">
-        <v>7.4</v>
+        <v>6.6</v>
       </c>
       <c r="L68">
-        <v>16.399999999999999</v>
+        <v>12</v>
       </c>
       <c r="M68">
+        <v>16.600000000000001</v>
+      </c>
+      <c r="N68">
         <v>2.5999999999999996</v>
-      </c>
-      <c r="N68">
-        <v>11.2</v>
       </c>
       <c r="O68">
         <v>6.6</v>
@@ -3804,299 +3784,299 @@
     </row>
     <row r="69" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
-        <v>0.69791666666666663</v>
+        <v>0.67708333333333337</v>
       </c>
       <c r="B69">
-        <v>65</v>
+        <v>72.400000000000006</v>
       </c>
       <c r="C69">
-        <v>12.499999999999998</v>
+        <v>24.5</v>
       </c>
       <c r="D69">
-        <v>15.4</v>
+        <v>7.8</v>
       </c>
       <c r="E69">
-        <v>9</v>
+        <v>11.8</v>
       </c>
       <c r="F69">
-        <v>15.5</v>
+        <v>12.6</v>
       </c>
       <c r="G69">
+        <v>15.400000000000002</v>
+      </c>
+      <c r="H69">
+        <v>9.1</v>
+      </c>
+      <c r="I69">
+        <v>15.6</v>
+      </c>
+      <c r="J69">
         <v>4.5</v>
       </c>
-      <c r="H69">
-        <v>6.4</v>
-      </c>
-      <c r="I69">
-        <v>22</v>
-      </c>
-      <c r="J69">
-        <v>11.8</v>
-      </c>
       <c r="K69">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="L69">
+        <v>11.9</v>
+      </c>
+      <c r="M69">
         <v>16.5</v>
       </c>
-      <c r="M69">
+      <c r="N69">
         <v>2.5999999999999996</v>
       </c>
-      <c r="N69">
-        <v>10.6</v>
-      </c>
       <c r="O69">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="P69">
-        <v>1.9</v>
+        <v>1.7999999999999998</v>
       </c>
     </row>
     <row r="70" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
-        <v>0.70833333333333337</v>
+        <v>0.6875</v>
       </c>
       <c r="B70">
-        <v>61</v>
+        <v>68.8</v>
       </c>
       <c r="C70">
+        <v>23.3</v>
+      </c>
+      <c r="D70">
+        <v>7.4</v>
+      </c>
+      <c r="E70">
+        <v>11.2</v>
+      </c>
+      <c r="F70">
         <v>12.499999999999998</v>
       </c>
-      <c r="D70">
+      <c r="G70">
+        <v>15.400000000000002</v>
+      </c>
+      <c r="H70">
+        <v>9</v>
+      </c>
+      <c r="I70">
         <v>15.5</v>
       </c>
-      <c r="E70">
-        <v>9.1</v>
-      </c>
-      <c r="F70">
-        <v>15.6</v>
-      </c>
-      <c r="G70">
-        <v>4.6000000000000005</v>
-      </c>
-      <c r="H70">
-        <v>6.4</v>
-      </c>
-      <c r="I70">
-        <v>20.7</v>
-      </c>
       <c r="J70">
-        <v>11.8</v>
+        <v>4.5</v>
       </c>
       <c r="K70">
+        <v>6.5</v>
+      </c>
+      <c r="L70">
+        <v>11.9</v>
+      </c>
+      <c r="M70">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="N70">
+        <v>2.5999999999999996</v>
+      </c>
+      <c r="O70">
         <v>6.6</v>
       </c>
-      <c r="L70">
-        <v>16.5</v>
-      </c>
-      <c r="M70">
-        <v>2.5999999999999996</v>
-      </c>
-      <c r="N70">
-        <v>9.9</v>
-      </c>
-      <c r="O70">
-        <v>6.7</v>
-      </c>
       <c r="P70">
-        <v>1.9</v>
+        <v>1.7999999999999998</v>
       </c>
     </row>
     <row r="71" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
-        <v>0.71875</v>
+        <v>0.69791666666666663</v>
       </c>
       <c r="B71">
-        <v>56.8</v>
+        <v>65</v>
       </c>
       <c r="C71">
-        <v>12.699999999999998</v>
+        <v>22</v>
       </c>
       <c r="D71">
-        <v>15.600000000000001</v>
+        <v>7</v>
       </c>
       <c r="E71">
-        <v>9.1</v>
+        <v>10.6</v>
       </c>
       <c r="F71">
-        <v>15.7</v>
+        <v>12.499999999999998</v>
       </c>
       <c r="G71">
-        <v>4.7</v>
+        <v>15.4</v>
       </c>
       <c r="H71">
+        <v>9</v>
+      </c>
+      <c r="I71">
+        <v>15.5</v>
+      </c>
+      <c r="J71">
+        <v>4.5</v>
+      </c>
+      <c r="K71">
         <v>6.4</v>
       </c>
-      <c r="I71">
-        <v>19.3</v>
-      </c>
-      <c r="J71">
-        <v>11.7</v>
-      </c>
-      <c r="K71">
-        <v>6.1</v>
-      </c>
       <c r="L71">
+        <v>11.8</v>
+      </c>
+      <c r="M71">
         <v>16.5</v>
       </c>
-      <c r="M71">
+      <c r="N71">
         <v>2.5999999999999996</v>
       </c>
-      <c r="N71">
-        <v>9.1999999999999993</v>
-      </c>
       <c r="O71">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="P71">
-        <v>2</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="72" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
-        <v>0.72916666666666663</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="B72">
-        <v>52.5</v>
+        <v>61</v>
       </c>
       <c r="C72">
-        <v>12.599999999999998</v>
+        <v>20.7</v>
       </c>
       <c r="D72">
-        <v>15.7</v>
+        <v>6.6</v>
       </c>
       <c r="E72">
-        <v>9</v>
+        <v>9.9</v>
       </c>
       <c r="F72">
-        <v>15.699999999999998</v>
+        <v>12.499999999999998</v>
       </c>
       <c r="G72">
-        <v>4.7</v>
+        <v>15.5</v>
       </c>
       <c r="H72">
-        <v>6.3</v>
+        <v>9.1</v>
       </c>
       <c r="I72">
-        <v>17.8</v>
+        <v>15.6</v>
       </c>
       <c r="J72">
-        <v>12.1</v>
+        <v>4.6000000000000005</v>
       </c>
       <c r="K72">
-        <v>5.7</v>
+        <v>6.4</v>
       </c>
       <c r="L72">
+        <v>11.8</v>
+      </c>
+      <c r="M72">
         <v>16.5</v>
       </c>
-      <c r="M72">
-        <v>2.8</v>
-      </c>
       <c r="N72">
-        <v>8.5</v>
+        <v>2.5999999999999996</v>
       </c>
       <c r="O72">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="P72">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="73" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
-        <v>0.73958333333333337</v>
+        <v>0.71875</v>
       </c>
       <c r="B73">
-        <v>48.1</v>
+        <v>56.8</v>
       </c>
       <c r="C73">
-        <v>12.399999999999999</v>
+        <v>19.3</v>
       </c>
       <c r="D73">
+        <v>6.1</v>
+      </c>
+      <c r="E73">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="F73">
+        <v>12.699999999999998</v>
+      </c>
+      <c r="G73">
+        <v>15.600000000000001</v>
+      </c>
+      <c r="H73">
+        <v>9.1</v>
+      </c>
+      <c r="I73">
         <v>15.7</v>
       </c>
-      <c r="E73">
-        <v>9.1</v>
-      </c>
-      <c r="F73">
-        <v>15.799999999999999</v>
-      </c>
-      <c r="G73">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="H73">
-        <v>6.1</v>
-      </c>
-      <c r="I73">
-        <v>16.3</v>
-      </c>
       <c r="J73">
-        <v>12</v>
+        <v>4.7</v>
       </c>
       <c r="K73">
-        <v>5.2</v>
+        <v>6.4</v>
       </c>
       <c r="L73">
-        <v>16.600000000000001</v>
+        <v>11.7</v>
       </c>
       <c r="M73">
-        <v>3</v>
+        <v>16.5</v>
       </c>
       <c r="N73">
-        <v>7.8</v>
+        <v>2.5999999999999996</v>
       </c>
       <c r="O73">
-        <v>7.1</v>
+        <v>6.7</v>
       </c>
       <c r="P73">
-        <v>2.1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
-        <v>0.75</v>
+        <v>0.72916666666666663</v>
       </c>
       <c r="B74">
-        <v>43.7</v>
+        <v>52.5</v>
       </c>
       <c r="C74">
-        <v>12</v>
+        <v>17.8</v>
       </c>
       <c r="D74">
-        <v>15.6</v>
+        <v>5.7</v>
       </c>
       <c r="E74">
-        <v>8.6999999999999993</v>
+        <v>8.5</v>
       </c>
       <c r="F74">
-        <v>15.700000000000001</v>
+        <v>12.599999999999998</v>
       </c>
       <c r="G74">
-        <v>5.0999999999999996</v>
+        <v>15.7</v>
       </c>
       <c r="H74">
-        <v>5.8</v>
+        <v>9</v>
       </c>
       <c r="I74">
-        <v>14.8</v>
+        <v>15.699999999999998</v>
       </c>
       <c r="J74">
-        <v>11.8</v>
+        <v>4.7</v>
       </c>
       <c r="K74">
-        <v>4.7</v>
+        <v>6.3</v>
       </c>
       <c r="L74">
-        <v>16.399999999999999</v>
+        <v>12.1</v>
       </c>
       <c r="M74">
-        <v>3.1</v>
+        <v>16.5</v>
       </c>
       <c r="N74">
-        <v>7.1</v>
+        <v>2.8</v>
       </c>
       <c r="O74">
-        <v>7.3999999999999995</v>
+        <v>6.8</v>
       </c>
       <c r="P74">
         <v>2.1</v>
@@ -4104,399 +4084,399 @@
     </row>
     <row r="75" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
-        <v>0.76041666666666663</v>
+        <v>0.73958333333333337</v>
       </c>
       <c r="B75">
-        <v>39.300000000000004</v>
+        <v>48.1</v>
       </c>
       <c r="C75">
-        <v>11.8</v>
+        <v>16.3</v>
       </c>
       <c r="D75">
-        <v>15.6</v>
+        <v>5.2</v>
       </c>
       <c r="E75">
-        <v>8.4</v>
+        <v>7.8</v>
       </c>
       <c r="F75">
-        <v>15.200000000000003</v>
+        <v>12.399999999999999</v>
       </c>
       <c r="G75">
-        <v>5.3</v>
+        <v>15.7</v>
       </c>
       <c r="H75">
-        <v>5.4</v>
+        <v>9.1</v>
       </c>
       <c r="I75">
-        <v>13.3</v>
+        <v>15.799999999999999</v>
       </c>
       <c r="J75">
-        <v>11.5</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="K75">
-        <v>4.2</v>
+        <v>6.1</v>
       </c>
       <c r="L75">
-        <v>16.100000000000001</v>
+        <v>12</v>
       </c>
       <c r="M75">
-        <v>3.1</v>
+        <v>16.600000000000001</v>
       </c>
       <c r="N75">
-        <v>6.4</v>
+        <v>3</v>
       </c>
       <c r="O75">
-        <v>7.5999999999999988</v>
+        <v>7.1</v>
       </c>
       <c r="P75">
-        <v>2.2000000000000002</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="76" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
-        <v>0.77083333333333337</v>
+        <v>0.75</v>
       </c>
       <c r="B76">
-        <v>34.9</v>
+        <v>43.7</v>
       </c>
       <c r="C76">
-        <v>11.4</v>
+        <v>14.8</v>
       </c>
       <c r="D76">
-        <v>15.5</v>
+        <v>4.7</v>
       </c>
       <c r="E76">
-        <v>8</v>
+        <v>7.1</v>
       </c>
       <c r="F76">
-        <v>14.800000000000002</v>
+        <v>12</v>
       </c>
       <c r="G76">
-        <v>5.8000000000000007</v>
+        <v>15.6</v>
       </c>
       <c r="H76">
-        <v>4.9000000000000004</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="I76">
+        <v>15.700000000000001</v>
+      </c>
+      <c r="J76">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="K76">
+        <v>5.8</v>
+      </c>
+      <c r="L76">
         <v>11.8</v>
       </c>
-      <c r="J76">
-        <v>11.3</v>
-      </c>
-      <c r="K76">
-        <v>3.8</v>
-      </c>
-      <c r="L76">
-        <v>15.999999999999998</v>
-      </c>
       <c r="M76">
-        <v>3.3000000000000003</v>
+        <v>16.399999999999999</v>
       </c>
       <c r="N76">
-        <v>5.7</v>
+        <v>3.1</v>
       </c>
       <c r="O76">
-        <v>7.8999999999999995</v>
+        <v>7.3999999999999995</v>
       </c>
       <c r="P76">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="77" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
-        <v>0.78125</v>
+        <v>0.76041666666666663</v>
       </c>
       <c r="B77">
-        <v>30.599999999999998</v>
+        <v>39.300000000000004</v>
       </c>
       <c r="C77">
-        <v>10.700000000000003</v>
+        <v>13.3</v>
       </c>
       <c r="D77">
-        <v>15.2</v>
+        <v>4.2</v>
       </c>
       <c r="E77">
-        <v>7.6999999999999993</v>
+        <v>6.4</v>
       </c>
       <c r="F77">
-        <v>14.7</v>
+        <v>11.8</v>
       </c>
       <c r="G77">
-        <v>5.9</v>
+        <v>15.6</v>
       </c>
       <c r="H77">
-        <v>4.5</v>
+        <v>8.4</v>
       </c>
       <c r="I77">
-        <v>10.4</v>
+        <v>15.200000000000003</v>
       </c>
       <c r="J77">
-        <v>11.1</v>
+        <v>5.3</v>
       </c>
       <c r="K77">
-        <v>3.3</v>
+        <v>5.4</v>
       </c>
       <c r="L77">
-        <v>16</v>
+        <v>11.5</v>
       </c>
       <c r="M77">
-        <v>3.4000000000000004</v>
+        <v>16.100000000000001</v>
       </c>
       <c r="N77">
-        <v>5</v>
+        <v>3.1</v>
       </c>
       <c r="O77">
-        <v>8.4</v>
+        <v>7.5999999999999988</v>
       </c>
       <c r="P77">
-        <v>2.5</v>
+        <v>2.2000000000000002</v>
       </c>
     </row>
     <row r="78" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
-        <v>0.79166666666666663</v>
+        <v>0.77083333333333337</v>
       </c>
       <c r="B78">
-        <v>26.5</v>
+        <v>34.9</v>
       </c>
       <c r="C78">
-        <v>10.4</v>
+        <v>11.8</v>
       </c>
       <c r="D78">
-        <v>15.199999999999998</v>
+        <v>3.8</v>
       </c>
       <c r="E78">
-        <v>7.3000000000000007</v>
+        <v>5.7</v>
       </c>
       <c r="F78">
-        <v>14.5</v>
+        <v>11.4</v>
       </c>
       <c r="G78">
-        <v>6</v>
+        <v>15.5</v>
       </c>
       <c r="H78">
-        <v>4.0999999999999996</v>
+        <v>8</v>
       </c>
       <c r="I78">
-        <v>9</v>
+        <v>14.800000000000002</v>
       </c>
       <c r="J78">
-        <v>10.700000000000001</v>
+        <v>5.8000000000000007</v>
       </c>
       <c r="K78">
-        <v>2.9</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="L78">
-        <v>15.599999999999998</v>
+        <v>11.3</v>
       </c>
       <c r="M78">
-        <v>3.5</v>
+        <v>15.999999999999998</v>
       </c>
       <c r="N78">
-        <v>4.3</v>
+        <v>3.3000000000000003</v>
       </c>
       <c r="O78">
-        <v>8.6999999999999993</v>
+        <v>7.8999999999999995</v>
       </c>
       <c r="P78">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="79" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
-        <v>0.80208333333333337</v>
+        <v>0.78125</v>
       </c>
       <c r="B79">
-        <v>22.5</v>
+        <v>30.599999999999998</v>
       </c>
       <c r="C79">
-        <v>10.1</v>
+        <v>10.4</v>
       </c>
       <c r="D79">
-        <v>14.999999999999998</v>
+        <v>3.3</v>
       </c>
       <c r="E79">
-        <v>7.1</v>
+        <v>5</v>
       </c>
       <c r="F79">
-        <v>14</v>
+        <v>10.700000000000003</v>
       </c>
       <c r="G79">
-        <v>6.5</v>
+        <v>15.2</v>
       </c>
       <c r="H79">
-        <v>3.7</v>
+        <v>7.6999999999999993</v>
       </c>
       <c r="I79">
-        <v>7.6</v>
+        <v>14.7</v>
       </c>
       <c r="J79">
-        <v>10.8</v>
+        <v>5.9</v>
       </c>
       <c r="K79">
-        <v>2.4</v>
+        <v>4.5</v>
       </c>
       <c r="L79">
-        <v>15.399999999999999</v>
+        <v>11.1</v>
       </c>
       <c r="M79">
-        <v>3.8000000000000003</v>
+        <v>16</v>
       </c>
       <c r="N79">
-        <v>3.7</v>
+        <v>3.4000000000000004</v>
       </c>
       <c r="O79">
-        <v>8.9999999999999982</v>
+        <v>8.4</v>
       </c>
       <c r="P79">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="80" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
-        <v>0.8125</v>
+        <v>0.79166666666666663</v>
       </c>
       <c r="B80">
-        <v>18.8</v>
+        <v>26.5</v>
       </c>
       <c r="C80">
-        <v>9.7000000000000011</v>
+        <v>9</v>
       </c>
       <c r="D80">
-        <v>15.2</v>
+        <v>2.9</v>
       </c>
       <c r="E80">
-        <v>6.8000000000000007</v>
+        <v>4.3</v>
       </c>
       <c r="F80">
-        <v>13.999999999999998</v>
+        <v>10.4</v>
       </c>
       <c r="G80">
-        <v>6.5</v>
+        <v>15.199999999999998</v>
       </c>
       <c r="H80">
-        <v>3.4</v>
+        <v>7.3000000000000007</v>
       </c>
       <c r="I80">
-        <v>6.4</v>
+        <v>14.5</v>
       </c>
       <c r="J80">
-        <v>10.5</v>
+        <v>6</v>
       </c>
       <c r="K80">
-        <v>2</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="L80">
-        <v>15.099999999999998</v>
+        <v>10.700000000000001</v>
       </c>
       <c r="M80">
-        <v>3.9</v>
+        <v>15.599999999999998</v>
       </c>
       <c r="N80">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="O80">
-        <v>9.1999999999999993</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="P80">
-        <v>2.8000000000000003</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="81" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
-        <v>0.82291666666666663</v>
+        <v>0.80208333333333337</v>
       </c>
       <c r="B81">
-        <v>15.2</v>
+        <v>22.5</v>
       </c>
       <c r="C81">
-        <v>9.5</v>
+        <v>7.6</v>
       </c>
       <c r="D81">
-        <v>15.2</v>
+        <v>2.4</v>
       </c>
       <c r="E81">
-        <v>6.7</v>
+        <v>3.7</v>
       </c>
       <c r="F81">
-        <v>13.999999999999998</v>
+        <v>10.1</v>
       </c>
       <c r="G81">
-        <v>6.6</v>
+        <v>14.999999999999998</v>
       </c>
       <c r="H81">
-        <v>3.3</v>
+        <v>7.1</v>
       </c>
       <c r="I81">
-        <v>5.2</v>
+        <v>14</v>
       </c>
       <c r="J81">
-        <v>10.5</v>
+        <v>6.5</v>
       </c>
       <c r="K81">
-        <v>1.6</v>
+        <v>3.7</v>
       </c>
       <c r="L81">
-        <v>15.099999999999998</v>
+        <v>10.8</v>
       </c>
       <c r="M81">
-        <v>3.9</v>
+        <v>15.399999999999999</v>
       </c>
       <c r="N81">
-        <v>2.5</v>
+        <v>3.8000000000000003</v>
       </c>
       <c r="O81">
-        <v>9.3000000000000007</v>
+        <v>8.9999999999999982</v>
       </c>
       <c r="P81">
-        <v>2.8000000000000003</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="82" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
-        <v>0.83333333333333337</v>
+        <v>0.8125</v>
       </c>
       <c r="B82">
-        <v>12</v>
+        <v>18.8</v>
       </c>
       <c r="C82">
-        <v>9.4</v>
+        <v>6.4</v>
       </c>
       <c r="D82">
-        <v>15.1</v>
+        <v>2</v>
       </c>
       <c r="E82">
-        <v>6.7</v>
+        <v>3.1</v>
       </c>
       <c r="F82">
-        <v>13.899999999999999</v>
+        <v>9.7000000000000011</v>
       </c>
       <c r="G82">
-        <v>6.6</v>
+        <v>15.2</v>
       </c>
       <c r="H82">
-        <v>3.2</v>
+        <v>6.8000000000000007</v>
       </c>
       <c r="I82">
-        <v>4.0999999999999996</v>
+        <v>13.999999999999998</v>
       </c>
       <c r="J82">
-        <v>10.4</v>
+        <v>6.5</v>
       </c>
       <c r="K82">
-        <v>1.3</v>
+        <v>3.4</v>
       </c>
       <c r="L82">
+        <v>10.5</v>
+      </c>
+      <c r="M82">
         <v>15.099999999999998</v>
       </c>
-      <c r="M82">
+      <c r="N82">
         <v>3.9</v>
       </c>
-      <c r="N82">
-        <v>2</v>
-      </c>
       <c r="O82">
-        <v>9.3000000000000007</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="P82">
         <v>2.8000000000000003</v>
@@ -4504,49 +4484,49 @@
     </row>
     <row r="83" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
-        <v>0.84375</v>
+        <v>0.82291666666666663</v>
       </c>
       <c r="B83">
-        <v>9.1</v>
+        <v>15.2</v>
       </c>
       <c r="C83">
-        <v>9.4</v>
+        <v>5.2</v>
       </c>
       <c r="D83">
-        <v>14.999999999999998</v>
+        <v>1.6</v>
       </c>
       <c r="E83">
+        <v>2.5</v>
+      </c>
+      <c r="F83">
+        <v>9.5</v>
+      </c>
+      <c r="G83">
+        <v>15.2</v>
+      </c>
+      <c r="H83">
+        <v>6.7</v>
+      </c>
+      <c r="I83">
+        <v>13.999999999999998</v>
+      </c>
+      <c r="J83">
         <v>6.6</v>
       </c>
-      <c r="F83">
-        <v>13.799999999999997</v>
-      </c>
-      <c r="G83">
-        <v>6.5</v>
-      </c>
-      <c r="H83">
-        <v>3.2</v>
-      </c>
-      <c r="I83">
-        <v>3.1</v>
-      </c>
-      <c r="J83">
-        <v>10.3</v>
-      </c>
       <c r="K83">
-        <v>1</v>
+        <v>3.3</v>
       </c>
       <c r="L83">
-        <v>14.799999999999997</v>
+        <v>10.5</v>
       </c>
       <c r="M83">
+        <v>15.099999999999998</v>
+      </c>
+      <c r="N83">
         <v>3.9</v>
       </c>
-      <c r="N83">
-        <v>1.5</v>
-      </c>
       <c r="O83">
-        <v>9.1999999999999993</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="P83">
         <v>2.8000000000000003</v>
@@ -4554,199 +4534,199 @@
     </row>
     <row r="84" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
-        <v>0.85416666666666663</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="B84">
-        <v>6.5</v>
+        <v>12</v>
       </c>
       <c r="C84">
-        <v>9.5</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="D84">
-        <v>14.6</v>
+        <v>1.3</v>
       </c>
       <c r="E84">
+        <v>2</v>
+      </c>
+      <c r="F84">
+        <v>9.4</v>
+      </c>
+      <c r="G84">
+        <v>15.1</v>
+      </c>
+      <c r="H84">
         <v>6.7</v>
       </c>
-      <c r="F84">
-        <v>13.5</v>
-      </c>
-      <c r="G84">
-        <v>6.5</v>
-      </c>
-      <c r="H84">
-        <v>3.3</v>
-      </c>
       <c r="I84">
-        <v>2.2000000000000002</v>
+        <v>13.899999999999999</v>
       </c>
       <c r="J84">
-        <v>10.3</v>
+        <v>6.6</v>
       </c>
       <c r="K84">
-        <v>0.7</v>
+        <v>3.2</v>
       </c>
       <c r="L84">
-        <v>14.899999999999999</v>
+        <v>10.4</v>
       </c>
       <c r="M84">
-        <v>3.8000000000000003</v>
+        <v>15.099999999999998</v>
       </c>
       <c r="N84">
-        <v>1.1000000000000001</v>
+        <v>3.9</v>
       </c>
       <c r="O84">
-        <v>9.1</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="P84">
-        <v>2.7</v>
+        <v>2.8000000000000003</v>
       </c>
     </row>
     <row r="85" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
-        <v>0.86458333333333337</v>
+        <v>0.84375</v>
       </c>
       <c r="B85">
-        <v>4.3</v>
+        <v>9.1</v>
       </c>
       <c r="C85">
-        <v>9.6</v>
+        <v>3.1</v>
       </c>
       <c r="D85">
-        <v>14.599999999999998</v>
+        <v>1</v>
       </c>
       <c r="E85">
-        <v>6.7</v>
+        <v>1.5</v>
       </c>
       <c r="F85">
-        <v>13.5</v>
+        <v>9.4</v>
       </c>
       <c r="G85">
-        <v>6.3000000000000007</v>
+        <v>14.999999999999998</v>
       </c>
       <c r="H85">
-        <v>3.3</v>
+        <v>6.6</v>
       </c>
       <c r="I85">
-        <v>1.4</v>
+        <v>13.799999999999997</v>
       </c>
       <c r="J85">
-        <v>10.4</v>
+        <v>6.5</v>
       </c>
       <c r="K85">
-        <v>0.5</v>
+        <v>3.2</v>
       </c>
       <c r="L85">
-        <v>14.7</v>
+        <v>10.3</v>
       </c>
       <c r="M85">
-        <v>3.8000000000000003</v>
+        <v>14.799999999999997</v>
       </c>
       <c r="N85">
-        <v>0.7</v>
+        <v>3.9</v>
       </c>
       <c r="O85">
-        <v>8.8999999999999986</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="P85">
-        <v>2.6</v>
+        <v>2.8000000000000003</v>
       </c>
     </row>
     <row r="86" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
-        <v>0.875</v>
+        <v>0.85416666666666663</v>
       </c>
       <c r="B86">
-        <v>2.5</v>
+        <v>6.5</v>
       </c>
       <c r="C86">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="D86">
+        <v>0.7</v>
+      </c>
+      <c r="E86">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F86">
         <v>9.5</v>
       </c>
-      <c r="D86">
-        <v>14.499999999999998</v>
-      </c>
-      <c r="E86">
-        <v>6.6000000000000005</v>
-      </c>
-      <c r="F86">
-        <v>13.4</v>
-      </c>
       <c r="G86">
-        <v>6</v>
+        <v>14.6</v>
       </c>
       <c r="H86">
+        <v>6.7</v>
+      </c>
+      <c r="I86">
+        <v>13.5</v>
+      </c>
+      <c r="J86">
+        <v>6.5</v>
+      </c>
+      <c r="K86">
         <v>3.3</v>
       </c>
-      <c r="I86">
-        <v>0.8</v>
-      </c>
-      <c r="J86">
-        <v>10.000000000000002</v>
-      </c>
-      <c r="K86">
-        <v>0.3</v>
-      </c>
       <c r="L86">
-        <v>14.7</v>
+        <v>10.3</v>
       </c>
       <c r="M86">
-        <v>3.5999999999999996</v>
+        <v>14.899999999999999</v>
       </c>
       <c r="N86">
-        <v>0.4</v>
+        <v>3.8000000000000003</v>
       </c>
       <c r="O86">
-        <v>8.7999999999999989</v>
+        <v>9.1</v>
       </c>
       <c r="P86">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="87" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
-        <v>0.88541666666666663</v>
+        <v>0.86458333333333337</v>
       </c>
       <c r="B87">
-        <v>1</v>
+        <v>4.3</v>
       </c>
       <c r="C87">
-        <v>9.3000000000000007</v>
+        <v>1.4</v>
       </c>
       <c r="D87">
-        <v>14.199999999999998</v>
+        <v>0.5</v>
       </c>
       <c r="E87">
-        <v>6.4</v>
+        <v>0.7</v>
       </c>
       <c r="F87">
-        <v>13.299999999999999</v>
+        <v>9.6</v>
       </c>
       <c r="G87">
-        <v>6</v>
+        <v>14.599999999999998</v>
       </c>
       <c r="H87">
+        <v>6.7</v>
+      </c>
+      <c r="I87">
+        <v>13.5</v>
+      </c>
+      <c r="J87">
+        <v>6.3000000000000007</v>
+      </c>
+      <c r="K87">
         <v>3.3</v>
       </c>
-      <c r="I87">
-        <v>0.3</v>
-      </c>
-      <c r="J87">
-        <v>9.8000000000000007</v>
-      </c>
-      <c r="K87">
-        <v>0.1</v>
-      </c>
       <c r="L87">
-        <v>14.499999999999998</v>
+        <v>10.4</v>
       </c>
       <c r="M87">
-        <v>3.5999999999999996</v>
+        <v>14.7</v>
       </c>
       <c r="N87">
-        <v>0.2</v>
+        <v>3.8000000000000003</v>
       </c>
       <c r="O87">
-        <v>8.6999999999999993</v>
+        <v>8.8999999999999986</v>
       </c>
       <c r="P87">
         <v>2.6</v>
@@ -4754,149 +4734,149 @@
     </row>
     <row r="88" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
-        <v>0.89583333333333337</v>
+        <v>0.875</v>
       </c>
       <c r="B88">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="C88">
-        <v>9.1</v>
+        <v>0.8</v>
       </c>
       <c r="D88">
-        <v>14.099999999999998</v>
+        <v>0.3</v>
       </c>
       <c r="E88">
-        <v>6.3</v>
+        <v>0.4</v>
       </c>
       <c r="F88">
-        <v>13.200000000000001</v>
+        <v>9.5</v>
       </c>
       <c r="G88">
+        <v>14.499999999999998</v>
+      </c>
+      <c r="H88">
+        <v>6.6000000000000005</v>
+      </c>
+      <c r="I88">
+        <v>13.4</v>
+      </c>
+      <c r="J88">
         <v>6</v>
       </c>
-      <c r="H88">
-        <v>3.2</v>
-      </c>
-      <c r="I88">
-        <v>0</v>
-      </c>
-      <c r="J88">
-        <v>9.7000000000000011</v>
-      </c>
       <c r="K88">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="L88">
-        <v>14.399999999999999</v>
+        <v>10.000000000000002</v>
       </c>
       <c r="M88">
-        <v>3.5</v>
+        <v>14.7</v>
       </c>
       <c r="N88">
-        <v>0</v>
+        <v>3.5999999999999996</v>
       </c>
       <c r="O88">
-        <v>8.6999999999999993</v>
+        <v>8.7999999999999989</v>
       </c>
       <c r="P88">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="89" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
-        <v>0.90625</v>
+        <v>0.88541666666666663</v>
       </c>
       <c r="B89">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C89">
-        <v>8.6999999999999993</v>
+        <v>0.3</v>
       </c>
       <c r="D89">
-        <v>13.799999999999997</v>
+        <v>0.1</v>
       </c>
       <c r="E89">
-        <v>6.1999999999999993</v>
+        <v>0.2</v>
       </c>
       <c r="F89">
-        <v>12.9</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="G89">
+        <v>14.199999999999998</v>
+      </c>
+      <c r="H89">
+        <v>6.4</v>
+      </c>
+      <c r="I89">
+        <v>13.299999999999999</v>
+      </c>
+      <c r="J89">
         <v>6</v>
       </c>
-      <c r="H89">
-        <v>3.1</v>
-      </c>
-      <c r="I89">
-        <v>0</v>
-      </c>
-      <c r="J89">
-        <v>9.6</v>
-      </c>
       <c r="K89">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="L89">
-        <v>14.1</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="M89">
-        <v>3.4000000000000004</v>
+        <v>14.499999999999998</v>
       </c>
       <c r="N89">
-        <v>0</v>
+        <v>3.5999999999999996</v>
       </c>
       <c r="O89">
         <v>8.6999999999999993</v>
       </c>
       <c r="P89">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="90" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
-        <v>0.91666666666666663</v>
+        <v>0.89583333333333337</v>
       </c>
       <c r="B90">
         <v>0</v>
       </c>
       <c r="C90">
-        <v>8.6</v>
+        <v>0</v>
       </c>
       <c r="D90">
-        <v>13.399999999999999</v>
+        <v>0</v>
       </c>
       <c r="E90">
-        <v>6.1999999999999993</v>
+        <v>0</v>
       </c>
       <c r="F90">
-        <v>12.700000000000001</v>
+        <v>9.1</v>
       </c>
       <c r="G90">
+        <v>14.099999999999998</v>
+      </c>
+      <c r="H90">
+        <v>6.3</v>
+      </c>
+      <c r="I90">
+        <v>13.200000000000001</v>
+      </c>
+      <c r="J90">
         <v>6</v>
       </c>
-      <c r="H90">
-        <v>3</v>
-      </c>
-      <c r="I90">
-        <v>0</v>
-      </c>
-      <c r="J90">
-        <v>9.5</v>
-      </c>
       <c r="K90">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="L90">
-        <v>14</v>
+        <v>9.7000000000000011</v>
       </c>
       <c r="M90">
-        <v>3.4000000000000004</v>
+        <v>14.399999999999999</v>
       </c>
       <c r="N90">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="O90">
-        <v>8.5</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="P90">
         <v>2.5</v>
@@ -4904,352 +4884,481 @@
     </row>
     <row r="91" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
-        <v>0.92708333333333337</v>
+        <v>0.90625</v>
       </c>
       <c r="B91">
         <v>0</v>
       </c>
       <c r="C91">
-        <v>8.6</v>
+        <v>0</v>
       </c>
       <c r="D91">
-        <v>13.3</v>
+        <v>0</v>
       </c>
       <c r="E91">
+        <v>0</v>
+      </c>
+      <c r="F91">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="G91">
+        <v>13.799999999999997</v>
+      </c>
+      <c r="H91">
+        <v>6.1999999999999993</v>
+      </c>
+      <c r="I91">
+        <v>12.9</v>
+      </c>
+      <c r="J91">
         <v>6</v>
       </c>
-      <c r="F91">
-        <v>12.200000000000003</v>
-      </c>
-      <c r="G91">
-        <v>5.8000000000000007</v>
-      </c>
-      <c r="H91">
-        <v>3</v>
-      </c>
-      <c r="I91">
-        <v>0</v>
-      </c>
-      <c r="J91">
-        <v>9.3000000000000007</v>
-      </c>
       <c r="K91">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="L91">
-        <v>13.599999999999998</v>
+        <v>9.6</v>
       </c>
       <c r="M91">
+        <v>14.1</v>
+      </c>
+      <c r="N91">
         <v>3.4000000000000004</v>
       </c>
-      <c r="N91">
-        <v>0</v>
-      </c>
       <c r="O91">
-        <v>8.3000000000000007</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="P91">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="92" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
-        <v>0.9375</v>
+        <v>0.91666666666666663</v>
       </c>
       <c r="B92">
         <v>0</v>
       </c>
       <c r="C92">
-        <v>8.4</v>
+        <v>0</v>
       </c>
       <c r="D92">
-        <v>13.1</v>
+        <v>0</v>
       </c>
       <c r="E92">
-        <v>5.8000000000000007</v>
+        <v>0</v>
       </c>
       <c r="F92">
-        <v>11.900000000000002</v>
+        <v>8.6</v>
       </c>
       <c r="G92">
-        <v>5.4</v>
+        <v>13.399999999999999</v>
       </c>
       <c r="H92">
+        <v>6.1999999999999993</v>
+      </c>
+      <c r="I92">
+        <v>12.700000000000001</v>
+      </c>
+      <c r="J92">
+        <v>6</v>
+      </c>
+      <c r="K92">
         <v>3</v>
       </c>
-      <c r="I92">
-        <v>0</v>
-      </c>
-      <c r="J92">
-        <v>9</v>
-      </c>
-      <c r="K92">
-        <v>0</v>
-      </c>
       <c r="L92">
-        <v>13.099999999999998</v>
+        <v>9.5</v>
       </c>
       <c r="M92">
-        <v>3.2</v>
+        <v>14</v>
       </c>
       <c r="N92">
-        <v>0</v>
+        <v>3.4000000000000004</v>
       </c>
       <c r="O92">
-        <v>7.7999999999999989</v>
+        <v>8.5</v>
       </c>
       <c r="P92">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="93" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
-        <v>0.94791666666666663</v>
+        <v>0.92708333333333337</v>
       </c>
       <c r="B93">
         <v>0</v>
       </c>
       <c r="C93">
-        <v>7.9</v>
+        <v>0</v>
       </c>
       <c r="D93">
-        <v>12.299999999999999</v>
+        <v>0</v>
       </c>
       <c r="E93">
-        <v>5.6</v>
+        <v>0</v>
       </c>
       <c r="F93">
-        <v>11.5</v>
+        <v>8.6</v>
       </c>
       <c r="G93">
-        <v>5.1999999999999993</v>
+        <v>13.3</v>
       </c>
       <c r="H93">
-        <v>2.9</v>
+        <v>6</v>
       </c>
       <c r="I93">
-        <v>0</v>
+        <v>12.200000000000003</v>
       </c>
       <c r="J93">
-        <v>8.6999999999999993</v>
+        <v>5.8000000000000007</v>
       </c>
       <c r="K93">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L93">
-        <v>12.6</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="M93">
-        <v>3.1</v>
+        <v>13.599999999999998</v>
       </c>
       <c r="N93">
-        <v>0</v>
+        <v>3.4000000000000004</v>
       </c>
       <c r="O93">
-        <v>7.5999999999999988</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="P93">
-        <v>2.2000000000000002</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="94" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
-        <v>0.95833333333333337</v>
+        <v>0.9375</v>
       </c>
       <c r="B94">
         <v>0</v>
       </c>
       <c r="C94">
-        <v>7.8</v>
+        <v>0</v>
       </c>
       <c r="D94">
-        <v>11.7</v>
+        <v>0</v>
       </c>
       <c r="E94">
-        <v>5.5</v>
+        <v>0</v>
       </c>
       <c r="F94">
-        <v>10.999999999999998</v>
+        <v>8.4</v>
       </c>
       <c r="G94">
-        <v>5</v>
+        <v>13.1</v>
       </c>
       <c r="H94">
-        <v>2.9</v>
+        <v>5.8000000000000007</v>
       </c>
       <c r="I94">
-        <v>0</v>
+        <v>11.900000000000002</v>
       </c>
       <c r="J94">
-        <v>8.1999999999999993</v>
+        <v>5.4</v>
       </c>
       <c r="K94">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L94">
-        <v>12.1</v>
+        <v>9</v>
       </c>
       <c r="M94">
-        <v>3</v>
+        <v>13.099999999999998</v>
       </c>
       <c r="N94">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="O94">
-        <v>7</v>
+        <v>7.7999999999999989</v>
       </c>
       <c r="P94">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="95" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
-        <v>0.96875</v>
+        <v>0.94791666666666663</v>
       </c>
       <c r="B95">
         <v>0</v>
       </c>
       <c r="C95">
-        <v>7.4999999999999991</v>
+        <v>0</v>
       </c>
       <c r="D95">
-        <v>11.2</v>
+        <v>0</v>
       </c>
       <c r="E95">
-        <v>5.3</v>
+        <v>0</v>
       </c>
       <c r="F95">
-        <v>10.4</v>
+        <v>7.9</v>
       </c>
       <c r="G95">
-        <v>4.6000000000000005</v>
+        <v>12.299999999999999</v>
       </c>
       <c r="H95">
-        <v>2.8</v>
+        <v>5.6</v>
       </c>
       <c r="I95">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="J95">
-        <v>7.8000000000000007</v>
+        <v>5.1999999999999993</v>
       </c>
       <c r="K95">
-        <v>0</v>
+        <v>2.9</v>
       </c>
       <c r="L95">
-        <v>11.5</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="M95">
-        <v>2.5999999999999996</v>
+        <v>12.6</v>
       </c>
       <c r="N95">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="O95">
-        <v>6.7</v>
+        <v>7.5999999999999988</v>
       </c>
       <c r="P95">
-        <v>1.9</v>
+        <v>2.2000000000000002</v>
       </c>
     </row>
     <row r="96" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
-        <v>0.97916666666666663</v>
+        <v>0.95833333333333337</v>
       </c>
       <c r="B96">
         <v>0</v>
       </c>
       <c r="C96">
-        <v>6.9999999999999991</v>
+        <v>0</v>
       </c>
       <c r="D96">
-        <v>10.4</v>
+        <v>0</v>
       </c>
       <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>7.8</v>
+      </c>
+      <c r="G96">
+        <v>11.7</v>
+      </c>
+      <c r="H96">
+        <v>5.5</v>
+      </c>
+      <c r="I96">
+        <v>10.999999999999998</v>
+      </c>
+      <c r="J96">
         <v>5</v>
       </c>
-      <c r="F96">
-        <v>9.7999999999999989</v>
-      </c>
-      <c r="G96">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="H96">
-        <v>2.8</v>
-      </c>
-      <c r="I96">
-        <v>0</v>
-      </c>
-      <c r="J96">
-        <v>7.3000000000000007</v>
-      </c>
       <c r="K96">
-        <v>0</v>
+        <v>2.9</v>
       </c>
       <c r="L96">
-        <v>10.5</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="M96">
-        <v>2.5</v>
+        <v>12.1</v>
       </c>
       <c r="N96">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O96">
-        <v>5.7000000000000011</v>
+        <v>7</v>
       </c>
       <c r="P96">
-        <v>1.7000000000000002</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="97" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
+        <v>0.96875</v>
+      </c>
+      <c r="B97">
+        <v>0</v>
+      </c>
+      <c r="C97">
+        <v>0</v>
+      </c>
+      <c r="D97">
+        <v>0</v>
+      </c>
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>7.4999999999999991</v>
+      </c>
+      <c r="G97">
+        <v>11.2</v>
+      </c>
+      <c r="H97">
+        <v>5.3</v>
+      </c>
+      <c r="I97">
+        <v>10.4</v>
+      </c>
+      <c r="J97">
+        <v>4.6000000000000005</v>
+      </c>
+      <c r="K97">
+        <v>2.8</v>
+      </c>
+      <c r="L97">
+        <v>7.8000000000000007</v>
+      </c>
+      <c r="M97">
+        <v>11.5</v>
+      </c>
+      <c r="N97">
+        <v>2.5999999999999996</v>
+      </c>
+      <c r="O97">
+        <v>6.7</v>
+      </c>
+      <c r="P97">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="98" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A98" s="1">
+        <v>0.97916666666666663</v>
+      </c>
+      <c r="B98">
+        <v>0</v>
+      </c>
+      <c r="C98">
+        <v>0</v>
+      </c>
+      <c r="D98">
+        <v>0</v>
+      </c>
+      <c r="E98">
+        <v>0</v>
+      </c>
+      <c r="F98">
+        <v>6.9999999999999991</v>
+      </c>
+      <c r="G98">
+        <v>10.4</v>
+      </c>
+      <c r="H98">
+        <v>5</v>
+      </c>
+      <c r="I98">
+        <v>9.7999999999999989</v>
+      </c>
+      <c r="J98">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="K98">
+        <v>2.8</v>
+      </c>
+      <c r="L98">
+        <v>7.3000000000000007</v>
+      </c>
+      <c r="M98">
+        <v>10.5</v>
+      </c>
+      <c r="N98">
+        <v>2.5</v>
+      </c>
+      <c r="O98">
+        <v>5.7000000000000011</v>
+      </c>
+      <c r="P98">
+        <v>1.7000000000000002</v>
+      </c>
+    </row>
+    <row r="99" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A99" s="1">
         <v>0.98958333333333337</v>
       </c>
-      <c r="B97">
-        <v>0</v>
-      </c>
-      <c r="C97">
+      <c r="B99">
+        <v>0</v>
+      </c>
+      <c r="C99">
+        <v>0</v>
+      </c>
+      <c r="D99">
+        <v>0</v>
+      </c>
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
         <v>6.7</v>
       </c>
-      <c r="D97">
+      <c r="G99">
         <v>9.5</v>
       </c>
-      <c r="E97">
+      <c r="H99">
         <v>4.8</v>
       </c>
-      <c r="F97">
+      <c r="I99">
         <v>9</v>
       </c>
-      <c r="G97">
+      <c r="J99">
         <v>3.6999999999999997</v>
       </c>
-      <c r="H97">
+      <c r="K99">
         <v>2.7</v>
       </c>
-      <c r="I97">
-        <v>0</v>
-      </c>
-      <c r="J97">
+      <c r="L99">
         <v>7</v>
       </c>
-      <c r="K97">
-        <v>0</v>
-      </c>
-      <c r="L97">
+      <c r="M99">
         <v>9.9</v>
       </c>
-      <c r="M97">
+      <c r="N99">
         <v>2.1</v>
       </c>
-      <c r="N97">
-        <v>0</v>
-      </c>
-      <c r="O97">
+      <c r="O99">
         <v>5.4000000000000012</v>
       </c>
-      <c r="P97">
+      <c r="P99">
         <v>1.6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <f>MAX(Sheet2!B:B)</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
